--- a/data/results/lsc_results_2022.xlsx
+++ b/data/results/lsc_results_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Delphine  Hill</t>
+          <t>Frances  West</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Franchesca S Little</t>
+          <t>Delphine  Hill</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1313,16 +1313,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>610323</v>
+        <v>609815</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Brianna N Nkemeh</t>
+          <t>Franchesca S Little</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1330,22 +1330,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BOWEN HS</t>
+          <t>BOUCHET</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bowen High School</t>
+          <t>Edward A Bouchet Math &amp; Science Academy ES</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Network 17</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
@@ -1355,12 +1355,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mattie J Bryant</t>
+          <t>Brianna N Nkemeh</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Adam  Davenport</t>
+          <t>Mattie J Bryant</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Adenike M Fafore</t>
+          <t>Adam  Davenport</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kenneth C Wilson</t>
+          <t>Adenike M Fafore</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1503,16 +1503,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>609806</v>
+        <v>610323</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Delores  Stevens</t>
+          <t>Kenneth C Wilson</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1520,37 +1520,37 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BRADWELL</t>
+          <t>BOWEN HS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Myra Bradwell Communications Arts &amp; Sciences ES</t>
+          <t>Bowen High School</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 17</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>610590</v>
+        <v>609806</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Eugene D Lewis</t>
+          <t>Delores  Stevens</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BRONZEVILLE CLASSICAL</t>
+          <t>BRADWELL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronzeville Classical Elementary School</t>
+          <t>Myra Bradwell Communications Arts &amp; Sciences ES</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Network 9</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
@@ -1583,12 +1583,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Charles  Barron Jr.</t>
+          <t>Eugene D Lewis</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LaTonya  Brooks</t>
+          <t>Charles  Barron Jr.</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Reynonda  Townsend</t>
+          <t>LaTonya  Brooks</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Stephen S Mitchell</t>
+          <t>Reynonda  Townsend</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Jennifer W Lewis</t>
+          <t>Stephen S Mitchell</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1769,16 +1769,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>609726</v>
+        <v>610590</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Barbara A Ware</t>
+          <t>Jennifer W Lewis</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1786,37 +1786,37 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BROOKS HS</t>
+          <t>BRONZEVILLE CLASSICAL</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gwendolyn Brooks College Preparatory Academy HS</t>
+          <t>Bronzeville Classical Elementary School</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 9</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>609818</v>
+        <v>609726</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hermelinda  Flores</t>
+          <t>Barbara A Ware</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1824,22 +1824,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BURBANK</t>
+          <t>BROOKS HS</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Luther Burbank Elementary School</t>
+          <t>Gwendolyn Brooks College Preparatory Academy HS</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Juana  Orozco</t>
+          <t>Hermelinda  Flores</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1883,16 +1883,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>609821</v>
+        <v>609818</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Randel N Smith</t>
+          <t>Juana  Orozco</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1900,12 +1900,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BURNHAM</t>
+          <t>BURBANK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Burnham Elementary Inclusive Academy</t>
+          <t>Luther Burbank Elementary School</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Justin A Dortch</t>
+          <t>Randel N Smith</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Laticia  Flanagan-Thomas</t>
+          <t>Justin A Dortch</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Dominique T Hawkins</t>
+          <t>Laticia  Flanagan-Thomas</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ladrenne  Harris , Mason</t>
+          <t>Aneesah  Muhammad-Weatherall</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Rashaud N Branscomb</t>
+          <t>Dominique T Hawkins</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Emily A Shazer</t>
+          <t>Ladrenne  Harris , Mason</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tyrone T Lee</t>
+          <t>Rashaud N Branscomb</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2187,16 +2187,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>609827</v>
+        <v>609821</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Janet  Turnipseed</t>
+          <t>Emily A Shazer</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2204,12 +2204,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BURNSIDE</t>
+          <t>BURNHAM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Burnside Elementary Scholastic Academy</t>
+          <t>Burnham Elementary Inclusive Academy</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2219,22 +2219,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>609827</v>
+        <v>609821</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Kenya  Lewis</t>
+          <t>Tyrone T Lee</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2242,12 +2242,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>BURNSIDE</t>
+          <t>BURNHAM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Burnside Elementary Scholastic Academy</t>
+          <t>Burnham Elementary Inclusive Academy</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gregory  Palmer</t>
+          <t>Janet  Turnipseed</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2305,12 +2305,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Kennettha  Lesley</t>
+          <t>Kenya  Lewis</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Williams  Tasha</t>
+          <t>Gregory  Palmer</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2381,12 +2381,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Linda  Harris</t>
+          <t>Kennettha  Lesley</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2415,16 +2415,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>610021</v>
+        <v>609827</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Jose  Santiago</t>
+          <t>Williams  Tasha</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CASALS</t>
+          <t>BURNSIDE</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Pablo Casals Elementary School</t>
+          <t>Burnside Elementary Scholastic Academy</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2447,13 +2447,13 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Network 5</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>610021</v>
+        <v>609827</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jennifer L Kaulen</t>
+          <t>Linda  Harris</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CASALS</t>
+          <t>BURNSIDE</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Pablo Casals Elementary School</t>
+          <t>Burnside Elementary Scholastic Academy</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2485,22 +2485,22 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Network 5</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>609852</v>
+        <v>610021</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Richard D Van Thuyne</t>
+          <t>Jose  Santiago</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2508,12 +2508,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CHAPPELL</t>
+          <t>CASALS</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Eliza Chappell Elementary School</t>
+          <t>Pablo Casals Elementary School</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2523,22 +2523,22 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 5</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>609855</v>
+        <v>610021</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lajule U Arrington</t>
+          <t>Jennifer L Kaulen</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2546,12 +2546,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CHRISTOPHER</t>
+          <t>CASALS</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Walter S Christopher Elementary School</t>
+          <t>Pablo Casals Elementary School</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2561,22 +2561,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Network 8</t>
+          <t>Network 5</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>609855</v>
+        <v>610251</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Robert C Yarbrough</t>
+          <t>TaSchaunda  Hall</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CHRISTOPHER</t>
+          <t>CATHER</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Walter S Christopher Elementary School</t>
+          <t>Willa Cather Elementary School</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2599,13 +2599,13 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Network 8</t>
+          <t>Network 5</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>609855</v>
+        <v>610251</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Adriana  Rodriguez</t>
+          <t>Karonda  Locust</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2622,12 +2622,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CHRISTOPHER</t>
+          <t>CATHER</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Walter S Christopher Elementary School</t>
+          <t>Willa Cather Elementary School</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Network 8</t>
+          <t>Network 5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>609855</v>
+        <v>609852</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Norberto  Juarez</t>
+          <t>Richard D Van Thuyne</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CHRISTOPHER</t>
+          <t>CHAPPELL</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Walter S Christopher Elementary School</t>
+          <t>Eliza Chappell Elementary School</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Network 8</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Veronica  Pina</t>
+          <t>Lajule U Arrington</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Carole A O'Brien</t>
+          <t>Robert C Yarbrough</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Susana  Tapia-Alvarez</t>
+          <t>Adriana  Rodriguez</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2795,16 +2795,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>609856</v>
+        <v>609855</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Claudia  Polovina</t>
+          <t>Norberto  Juarez</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2812,12 +2812,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CLAY</t>
+          <t>CHRISTOPHER</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Henry Clay Elementary School</t>
+          <t>Walter S Christopher Elementary School</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2827,22 +2827,22 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>609759</v>
+        <v>609855</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bethsaida  Garcia</t>
+          <t>Veronica  Pina</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2850,28 +2850,28 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CLEMENTE HS</t>
+          <t>CHRISTOPHER</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Roberto Clemente Community Academy High School</t>
+          <t>Walter S Christopher Elementary School</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>609759</v>
+        <v>609855</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dennis  Acosta</t>
+          <t>Carole A O'Brien</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2888,37 +2888,37 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CLEMENTE HS</t>
+          <t>CHRISTOPHER</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Roberto Clemente Community Academy High School</t>
+          <t>Walter S Christopher Elementary School</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>609857</v>
+        <v>609855</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Danny R Scott</t>
+          <t>Susana  Tapia-Alvarez</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2926,12 +2926,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CLEVELAND</t>
+          <t>CHRISTOPHER</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Grover Cleveland Elementary School</t>
+          <t>Walter S Christopher Elementary School</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2941,22 +2941,22 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>609866</v>
+        <v>609856</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tomasz M Bajorek</t>
+          <t>Claudia  Polovina</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2964,12 +2964,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>COONLEY</t>
+          <t>CLAY</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>John C Coonley Elementary School</t>
+          <t>Henry Clay Elementary School</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2979,22 +2979,22 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>609866</v>
+        <v>609759</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Kelly D Lish</t>
+          <t>Daniel  Marre</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -3002,37 +3002,37 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>COONLEY</t>
+          <t>CLEMENTE HS</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>John C Coonley Elementary School</t>
+          <t>Roberto Clemente Community Academy High School</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>609866</v>
+        <v>609759</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Leigh A Bertucci</t>
+          <t>Bethsaida  Garcia</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3040,28 +3040,28 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>COONLEY</t>
+          <t>CLEMENTE HS</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>John C Coonley Elementary School</t>
+          <t>Roberto Clemente Community Academy High School</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>609866</v>
+        <v>609759</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lindsey S Foreman</t>
+          <t>Dennis  Acosta</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3078,37 +3078,37 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>COONLEY</t>
+          <t>CLEMENTE HS</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>John C Coonley Elementary School</t>
+          <t>Roberto Clemente Community Academy High School</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>609761</v>
+        <v>609857</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Barbara J Richardson</t>
+          <t>Danny R Scott</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -3116,37 +3116,37 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CORLISS HS</t>
+          <t>CLEVELAND</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>George H Corliss High School</t>
+          <t>Grover Cleveland Elementary School</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Network 17</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>609761</v>
+        <v>610170</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Yvonne E Newell</t>
+          <t>Craig A Cleve</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3154,37 +3154,37 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CORLISS HS</t>
+          <t>COLUMBIA EXPLORERS</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>George H Corliss High School</t>
+          <t>Columbia Explorers Elementary Academy</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Network 17</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>610561</v>
+        <v>609866</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Staci C Slattery</t>
+          <t>Tomasz M Bajorek</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -3192,37 +3192,37 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CRANE MEDICAL HS</t>
+          <t>COONLEY</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Richard T Crane Medical Preparatory HS</t>
+          <t>John C Coonley Elementary School</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>610561</v>
+        <v>609866</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Jesus  Magana</t>
+          <t>Kelly D Lish</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3230,37 +3230,37 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CRANE MEDICAL HS</t>
+          <t>COONLEY</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Richard T Crane Medical Preparatory HS</t>
+          <t>John C Coonley Elementary School</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>610561</v>
+        <v>609866</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Chukwuemeka  Okonmah</t>
+          <t>Leigh A Bertucci</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -3268,37 +3268,37 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CRANE MEDICAL HS</t>
+          <t>COONLEY</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Richard T Crane Medical Preparatory HS</t>
+          <t>John C Coonley Elementary School</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>610561</v>
+        <v>609866</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lena  Moore</t>
+          <t>Lindsey S Foreman</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -3306,37 +3306,37 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CRANE MEDICAL HS</t>
+          <t>COONLEY</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Richard T Crane Medical Preparatory HS</t>
+          <t>John C Coonley Elementary School</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>610561</v>
+        <v>609761</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sheila  Holmes</t>
+          <t>Barbara J Richardson</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CRANE MEDICAL HS</t>
+          <t>CORLISS HS</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Richard T Crane Medical Preparatory HS</t>
+          <t>George H Corliss High School</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3359,13 +3359,13 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 17</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>610561</v>
+        <v>609761</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tracelli N Rockford</t>
+          <t>Yvonne E Newell</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3382,12 +3382,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CRANE MEDICAL HS</t>
+          <t>CORLISS HS</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Richard T Crane Medical Preparatory HS</t>
+          <t>George H Corliss High School</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 17</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3407,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Trevia  Virgin</t>
+          <t>Staci C Slattery</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Reginald A York</t>
+          <t>Jesus  Magana</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3479,16 +3479,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>609900</v>
+        <v>610561</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Inez  Swanson</t>
+          <t>Chukwuemeka  Okonmah</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3496,37 +3496,37 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CURTIS</t>
+          <t>CRANE MEDICAL HS</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>George W Curtis Elementary School</t>
+          <t>Richard T Crane Medical Preparatory HS</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>AUSL</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>609900</v>
+        <v>610561</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tara L Warner</t>
+          <t>Lena  Moore</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3534,28 +3534,28 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CURTIS</t>
+          <t>CRANE MEDICAL HS</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>George W Curtis Elementary School</t>
+          <t>Richard T Crane Medical Preparatory HS</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>AUSL</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>610060</v>
+        <v>610561</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Danielle M Dewalt</t>
+          <t>Sheila  Holmes</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3572,28 +3572,28 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Chicago World Language Academy</t>
+          <t>CRANE MEDICAL HS</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Chicago World Language Academy</t>
+          <t>Richard T Crane Medical Preparatory HS</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Network 6</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>610060</v>
+        <v>610561</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Juan J Gonzalez</t>
+          <t>Tracelli N Rockford</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3610,37 +3610,37 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Chicago World Language Academy</t>
+          <t>CRANE MEDICAL HS</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Chicago World Language Academy</t>
+          <t>Richard T Crane Medical Preparatory HS</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Network 6</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>609876</v>
+        <v>610561</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Anita  Caballero</t>
+          <t>Trevia  Virgin</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -3648,28 +3648,28 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>DAVIS N</t>
+          <t>CRANE MEDICAL HS</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Nathan S Davis Elementary School</t>
+          <t>Richard T Crane Medical Preparatory HS</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Network 8</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>609876</v>
+        <v>610561</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Lucia M Solis</t>
+          <t>Reginald A York</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3686,37 +3686,37 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>DAVIS N</t>
+          <t>CRANE MEDICAL HS</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Nathan S Davis Elementary School</t>
+          <t>Richard T Crane Medical Preparatory HS</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Network 8</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>609876</v>
+        <v>609900</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Luminita  Dragos</t>
+          <t>Inez  Swanson</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -3724,12 +3724,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DAVIS N</t>
+          <t>CURTIS</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Nathan S Davis Elementary School</t>
+          <t>George W Curtis Elementary School</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3739,22 +3739,22 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Network 8</t>
+          <t>AUSL</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>609879</v>
+        <v>609900</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Patricia A Glatz</t>
+          <t>Tara L Warner</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DAWES</t>
+          <t>CURTIS</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Charles Gates Dawes Elementary School</t>
+          <t>George W Curtis Elementary School</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3777,22 +3777,22 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>AUSL</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>609879</v>
+        <v>610060</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sandra P Novoa</t>
+          <t>Danielle M Dewalt</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3800,12 +3800,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DAWES</t>
+          <t>Chicago World Language Academy</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Charles Gates Dawes Elementary School</t>
+          <t>Chicago World Language Academy</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3815,13 +3815,13 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 6</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>609879</v>
+        <v>610060</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Claudia  Mendoza</t>
+          <t>Juan J Gonzalez</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3838,12 +3838,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DAWES</t>
+          <t>Chicago World Language Academy</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Charles Gates Dawes Elementary School</t>
+          <t>Chicago World Language Academy</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3853,22 +3853,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 6</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>609879</v>
+        <v>609876</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Claudia I Vega</t>
+          <t>Anita  Caballero</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3876,12 +3876,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DAWES</t>
+          <t>DAVIS N</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Charles Gates Dawes Elementary School</t>
+          <t>Nathan S Davis Elementary School</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3891,22 +3891,22 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>609879</v>
+        <v>609876</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Lindsay C Holbrook</t>
+          <t>Lucia M Solis</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DAWES</t>
+          <t>DAVIS N</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Charles Gates Dawes Elementary School</t>
+          <t>Nathan S Davis Elementary School</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3929,22 +3929,22 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>609879</v>
+        <v>609876</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Maria L Mendoza</t>
+          <t>Luminita  Dragos</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3952,12 +3952,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>DAWES</t>
+          <t>DAVIS N</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Charles Gates Dawes Elementary School</t>
+          <t>Nathan S Davis Elementary School</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Alyse M Biszewski</t>
+          <t>Patricia A Glatz</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -4015,12 +4015,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Elizabeth W DiMarco</t>
+          <t>Sandra P Novoa</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -4049,16 +4049,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>610313</v>
+        <v>609879</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Boris  Negron</t>
+          <t>Claudia  Mendoza</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DE DIEGO</t>
+          <t>DAWES</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Jose De Diego Elementary Community Academy</t>
+          <t>Charles Gates Dawes Elementary School</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4081,13 +4081,13 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Network 5</t>
+          <t>Network 10</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>610313</v>
+        <v>609879</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Lidia L Medina</t>
+          <t>Claudia I Vega</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DE DIEGO</t>
+          <t>DAWES</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Jose De Diego Elementary Community Academy</t>
+          <t>Charles Gates Dawes Elementary School</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4119,13 +4119,13 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Network 5</t>
+          <t>Network 10</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>610363</v>
+        <v>609879</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Catherine A Ashlaw Doherty</t>
+          <t>Lindsay C Holbrook</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISNEY</t>
+          <t>DAWES</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Walt Disney Magnet Elementary School</t>
+          <t>Charles Gates Dawes Elementary School</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4157,22 +4157,22 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>Network 10</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>609887</v>
+        <v>609879</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Samantha D Meaderds</t>
+          <t>Maria L Mendoza</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -4180,12 +4180,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>DAWES</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Arthur Dixon Elementary School</t>
+          <t>Charles Gates Dawes Elementary School</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4195,22 +4195,22 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 10</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>610254</v>
+        <v>609879</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Janie  Rucker</t>
+          <t>Alyse M Biszewski</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DVORAK</t>
+          <t>DAWES</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Dvorak Technology Academy</t>
+          <t>Charles Gates Dawes Elementary School</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4233,13 +4233,13 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 10</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>610254</v>
+        <v>609879</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Deshaun A Simmons</t>
+          <t>Elizabeth W DiMarco</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DVORAK</t>
+          <t>DAWES</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dvorak Technology Academy</t>
+          <t>Charles Gates Dawes Elementary School</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4271,22 +4271,22 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 10</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>610254</v>
+        <v>610313</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Kjerstin J Anderson</t>
+          <t>Boris  Negron</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -4294,12 +4294,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DVORAK</t>
+          <t>DE DIEGO</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dvorak Technology Academy</t>
+          <t>Jose De Diego Elementary Community Academy</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4309,22 +4309,22 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>610254</v>
+        <v>610313</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Megan K Dykes</t>
+          <t>Lidia L Medina</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -4332,12 +4332,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DVORAK</t>
+          <t>DE DIEGO</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Dvorak Technology Academy</t>
+          <t>Jose De Diego Elementary Community Academy</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4347,22 +4347,22 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>609897</v>
+        <v>610363</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Darlene  Suttle</t>
+          <t>Catherine A Ashlaw Doherty</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EARLE</t>
+          <t>DISNEY</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Charles W Earle Elementary School</t>
+          <t>Walt Disney Magnet Elementary School</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4385,22 +4385,22 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Network 11</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>610362</v>
+        <v>609887</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Vickie R Powell-Bass</t>
+          <t>Samantha D Meaderds</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -4408,12 +4408,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>EVERS</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Medgar Evers Elementary School</t>
+          <t>Arthur Dixon Elementary School</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4423,22 +4423,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Network 11</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>610362</v>
+        <v>610254</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Alexis B Wysinger</t>
+          <t>Janie  Rucker</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -4446,12 +4446,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EVERS</t>
+          <t>DVORAK</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Medgar Evers Elementary School</t>
+          <t>Dvorak Technology Academy</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4461,22 +4461,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Network 11</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>610362</v>
+        <v>610254</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Tameka D Jones</t>
+          <t>Deshaun A Simmons</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EVERS</t>
+          <t>DVORAK</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Medgar Evers Elementary School</t>
+          <t>Dvorak Technology Academy</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4499,22 +4499,22 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Network 11</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>609967</v>
+        <v>610254</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Carmen V Chavez</t>
+          <t>Kjerstin J Anderson</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FINKL</t>
+          <t>DVORAK</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>William F Finkl Elementary School</t>
+          <t>Dvorak Technology Academy</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4543,7 +4543,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>609967</v>
+        <v>610254</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Anita D Zajac</t>
+          <t>Megan K Dykes</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FINKL</t>
+          <t>DVORAK</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>William F Finkl Elementary School</t>
+          <t>Dvorak Technology Academy</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4581,16 +4581,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>609967</v>
+        <v>609897</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Erin  Treacy</t>
+          <t>Darlene  Suttle</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -4598,12 +4598,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FINKL</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>William F Finkl Elementary School</t>
+          <t>Charles W Earle Elementary School</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4613,22 +4613,22 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>609967</v>
+        <v>609898</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Jose J Rodriguez</t>
+          <t>Marisa  Alarcon</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -4636,12 +4636,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FINKL</t>
+          <t>EBERHART</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>William F Finkl Elementary School</t>
+          <t>John F Eberhart Elementary School</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4651,22 +4651,22 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 10</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>609919</v>
+        <v>609898</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Debra  Strong</t>
+          <t>Raymundo  Salgado</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -4674,12 +4674,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FISKE</t>
+          <t>EBERHART</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>John Fiske Elementary School</t>
+          <t>John F Eberhart Elementary School</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4689,22 +4689,22 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Network 9</t>
+          <t>Network 10</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>609919</v>
+        <v>609901</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Alexis  Mimms</t>
+          <t>Ryan D Friedman</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -4712,12 +4712,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FISKE</t>
+          <t>EDGEBROOK</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>John Fiske Elementary School</t>
+          <t>Edgebrook Elementary School</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4727,22 +4727,22 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Network 9</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>609919</v>
+        <v>610362</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Joi B Tillman</t>
+          <t>Vickie R Powell-Bass</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -4750,12 +4750,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FISKE</t>
+          <t>EVERS</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>John Fiske Elementary School</t>
+          <t>Medgar Evers Elementary School</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4765,22 +4765,22 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Network 9</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>609919</v>
+        <v>610362</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sheree W Hardaway</t>
+          <t>Alexis B Wysinger</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -4788,12 +4788,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FISKE</t>
+          <t>EVERS</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>John Fiske Elementary School</t>
+          <t>Medgar Evers Elementary School</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4803,13 +4803,13 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Network 9</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>609930</v>
+        <v>610362</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Bethzaira  Charluisant</t>
+          <t>Tameka D Jones</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FUNSTON</t>
+          <t>EVERS</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Frederick Funston Elementary School</t>
+          <t>Medgar Evers Elementary School</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4841,22 +4841,22 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Network 4</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>609937</v>
+        <v>609967</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>John R Rizzo</t>
+          <t>Carmen V Chavez</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -4864,12 +4864,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>GARVY</t>
+          <t>FINKL</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>John W Garvy Elementary School</t>
+          <t>William F Finkl Elementary School</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4879,22 +4879,22 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>609937</v>
+        <v>609967</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Lydia J Hernandez</t>
+          <t>Anita D Zajac</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -4902,12 +4902,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>GARVY</t>
+          <t>FINKL</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>John W Garvy Elementary School</t>
+          <t>William F Finkl Elementary School</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4917,22 +4917,22 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>609938</v>
+        <v>609967</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Alma  Palacio</t>
+          <t>Erin  Treacy</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>GARY</t>
+          <t>FINKL</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Joseph E Gary Elementary School</t>
+          <t>William F Finkl Elementary School</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4961,16 +4961,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>609944</v>
+        <v>609967</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Esperanza S Baeza</t>
+          <t>Jose J Rodriguez</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GRISSOM</t>
+          <t>FINKL</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Virgil Grissom Elementary School</t>
+          <t>William F Finkl Elementary School</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4993,22 +4993,22 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>609944</v>
+        <v>609919</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Joshua A Daisy</t>
+          <t>Debra  Strong</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -5016,12 +5016,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>GRISSOM</t>
+          <t>FISKE</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Virgil Grissom Elementary School</t>
+          <t>John Fiske Elementary School</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5031,13 +5031,13 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 9</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>609944</v>
+        <v>609919</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Keyanna S Bridges</t>
+          <t>Alexis  Mimms</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -5054,12 +5054,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>GRISSOM</t>
+          <t>FISKE</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Virgil Grissom Elementary School</t>
+          <t>John Fiske Elementary School</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5069,13 +5069,13 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 9</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>609944</v>
+        <v>609919</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Melissa  Ramirez</t>
+          <t>Joi B Tillman</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -5092,12 +5092,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>GRISSOM</t>
+          <t>FISKE</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Virgil Grissom Elementary School</t>
+          <t>John Fiske Elementary School</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5107,22 +5107,22 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 9</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>609963</v>
+        <v>609919</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Jeanette A Dubay-McDermit</t>
+          <t>Sheree W Hardaway</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -5130,12 +5130,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>FISKE</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Alexander Hamilton Elementary School</t>
+          <t>John Fiske Elementary School</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5145,22 +5145,22 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Network 4</t>
+          <t>Network 9</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>609963</v>
+        <v>609930</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Kerrie A Rovito</t>
+          <t>Bethzaira  Charluisant</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>FUNSTON</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Alexander Hamilton Elementary School</t>
+          <t>Frederick Funston Elementary School</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5189,16 +5189,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>609975</v>
+        <v>609937</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sean A Black</t>
+          <t>John R Rizzo</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -5206,12 +5206,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>HAY</t>
+          <t>GARVY</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>John Hay Elementary Community Academy</t>
+          <t>John W Garvy Elementary School</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5221,13 +5221,13 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>610532</v>
+        <v>609937</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Micaela  Aguirre</t>
+          <t>Lydia J Hernandez</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -5244,37 +5244,37 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>HERNANDEZ</t>
+          <t>GARVY</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Irene C. Hernandez Middle School for the Advancement of Science</t>
+          <t>John W Garvy Elementary School</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>609994</v>
+        <v>609938</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Herve  Zille</t>
+          <t>Alma  Palacio</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>HIBBARD</t>
+          <t>GARY</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>William G Hibbard Elementary School</t>
+          <t>Joseph E Gary Elementary School</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5297,22 +5297,22 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>609994</v>
+        <v>609945</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bernadette M Payne</t>
+          <t>Carlos R Portillo</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -5320,12 +5320,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>HIBBARD</t>
+          <t>GOUDY</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>William G Hibbard Elementary School</t>
+          <t>William C. Goudy Technology Academy</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5335,22 +5335,22 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>609996</v>
+        <v>609944</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Maxwell E Fritz</t>
+          <t>Esperanza S Baeza</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -5358,12 +5358,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>HOLDEN</t>
+          <t>GRISSOM</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Charles N Holden Elementary School</t>
+          <t>Virgil Grissom Elementary School</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5373,22 +5373,22 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>610384</v>
+        <v>609944</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Reza  Alrifai</t>
+          <t>Joshua A Daisy</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -5396,28 +5396,28 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>INFINITY HS</t>
+          <t>GRISSOM</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Infinity Math Science and Technology High School</t>
+          <t>Virgil Grissom Elementary School</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>610010</v>
+        <v>609944</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Dawn  English</t>
+          <t>Keyanna S Bridges</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -5434,12 +5434,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>JAHN</t>
+          <t>GRISSOM</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Friedrich L. Jahn Elementary of the Fine Arts</t>
+          <t>Virgil Grissom Elementary School</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5449,22 +5449,22 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Network 4</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>609865</v>
+        <v>609944</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Amy K Johnson</t>
+          <t>Melissa  Ramirez</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -5472,12 +5472,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>GRISSOM</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Jordan Elementary Community School</t>
+          <t>Virgil Grissom Elementary School</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5487,22 +5487,22 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>609715</v>
+        <v>609963</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Alan J Goldberg</t>
+          <t>Jeanette A Dubay-McDermit</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -5510,28 +5510,28 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>KELLY HS</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Thomas Kelly College Preparatory</t>
+          <t>Alexander Hamilton Elementary School</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Network 16</t>
+          <t>Network 4</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>609715</v>
+        <v>609963</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Keith J Newquist</t>
+          <t>Kerrie A Rovito</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -5548,37 +5548,37 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>KELLY HS</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Thomas Kelly College Preparatory</t>
+          <t>Alexander Hamilton Elementary School</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Network 16</t>
+          <t>Network 4</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>609715</v>
+        <v>609975</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Maria M Gana Caro</t>
+          <t>Sean A Black</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -5586,37 +5586,37 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>KELLY HS</t>
+          <t>HAY</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Thomas Kelly College Preparatory</t>
+          <t>John Hay Elementary Community Academy</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Network 16</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>610019</v>
+        <v>610532</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Cynthia  Butler</t>
+          <t>Micaela  Aguirre</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -5624,28 +5624,28 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>KERSHAW</t>
+          <t>HERNANDEZ</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Joshua D Kershaw Elementary School</t>
+          <t>Irene C. Hernandez Middle School for the Advancement of Science</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Network 11</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>610019</v>
+        <v>609994</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Danielle N Thomas</t>
+          <t>Herve  Zille</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -5662,12 +5662,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>KERSHAW</t>
+          <t>HIBBARD</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Joshua D Kershaw Elementary School</t>
+          <t>William G Hibbard Elementary School</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5677,13 +5677,13 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Network 11</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>610019</v>
+        <v>609994</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Juliane E Kenny</t>
+          <t>Bernadette M Payne</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -5700,12 +5700,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>KERSHAW</t>
+          <t>HIBBARD</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Joshua D Kershaw Elementary School</t>
+          <t>William G Hibbard Elementary School</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5715,22 +5715,22 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Network 11</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>610019</v>
+        <v>609996</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Latoya P Lindberg</t>
+          <t>Maxwell E Fritz</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -5738,12 +5738,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>KERSHAW</t>
+          <t>HOLDEN</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Joshua D Kershaw Elementary School</t>
+          <t>Charles N Holden Elementary School</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5753,22 +5753,22 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Network 11</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>610022</v>
+        <v>610384</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Noorazizah  Abdul</t>
+          <t>Reza  Alrifai</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -5776,28 +5776,28 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>KILMER</t>
+          <t>INFINITY HS</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Joyce Kilmer Elementary School</t>
+          <t>Infinity Math Science and Technology High School</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>610022</v>
+        <v>610010</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Shamim  Zafar</t>
+          <t>Dawn  English</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>KILMER</t>
+          <t>JAHN</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Joyce Kilmer Elementary School</t>
+          <t>Friedrich L. Jahn Elementary of the Fine Arts</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5829,22 +5829,22 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>Network 4</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>610022</v>
+        <v>609865</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Kathleen S Moring</t>
+          <t>Amy K Johnson</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -5852,12 +5852,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>KILMER</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Joyce Kilmer Elementary School</t>
+          <t>Jordan Elementary Community School</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5873,7 +5873,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>610022</v>
+        <v>609715</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Zarina A Qadir</t>
+          <t>Alan J Goldberg</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -5890,37 +5890,37 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>KILMER</t>
+          <t>KELLY HS</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Joyce Kilmer Elementary School</t>
+          <t>Thomas Kelly College Preparatory</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>Network 16</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>609720</v>
+        <v>609715</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Dannixa L Velez</t>
+          <t>Keith J Newquist</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>LANE TECH HS</t>
+          <t>KELLY HS</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Albert G Lane Technical High School</t>
+          <t>Thomas Kelly College Preparatory</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5943,22 +5943,22 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Network 14</t>
+          <t>Network 16</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>609720</v>
+        <v>609715</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CATHERINE  ASHLAW DOHERTY</t>
+          <t>Maria M Gana Caro</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -5966,12 +5966,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>LANE TECH HS</t>
+          <t>KELLY HS</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Albert G Lane Technical High School</t>
+          <t>Thomas Kelly College Preparatory</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5981,13 +5981,13 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Network 14</t>
+          <t>Network 16</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>609993</v>
+        <v>610019</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Maria  Mendez</t>
+          <t>Cynthia  Butler</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -6004,12 +6004,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>LARA</t>
+          <t>KERSHAW</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Agustin Lara Elementary Academy</t>
+          <t>Joshua D Kershaw Elementary School</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6019,22 +6019,22 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>609993</v>
+        <v>610019</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Maria  Mendez-Garcia</t>
+          <t>Danielle N Thomas</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -6042,12 +6042,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>LARA</t>
+          <t>KERSHAW</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Agustin Lara Elementary Academy</t>
+          <t>Joshua D Kershaw Elementary School</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6057,22 +6057,22 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>609993</v>
+        <v>610019</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Miriam  Pardina</t>
+          <t>Juliane E Kenny</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>LARA</t>
+          <t>KERSHAW</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Agustin Lara Elementary Academy</t>
+          <t>Joshua D Kershaw Elementary School</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6095,22 +6095,22 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>609993</v>
+        <v>610019</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Olivia  Calderon</t>
+          <t>Latoya P Lindberg</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -6118,12 +6118,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>LARA</t>
+          <t>KERSHAW</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Agustin Lara Elementary Academy</t>
+          <t>Joshua D Kershaw Elementary School</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6133,13 +6133,13 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>609993</v>
+        <v>610022</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Anahi  Martinez</t>
+          <t>Ibtisam  Mohammed</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -6156,12 +6156,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>LARA</t>
+          <t>KILMER</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Agustin Lara Elementary Academy</t>
+          <t>Joyce Kilmer Elementary School</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6171,13 +6171,13 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>609993</v>
+        <v>610022</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Hortensia  Elias</t>
+          <t>Noorazizah  Abdul</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -6194,12 +6194,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>LARA</t>
+          <t>KILMER</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Agustin Lara Elementary Academy</t>
+          <t>Joyce Kilmer Elementary School</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6209,13 +6209,13 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>609993</v>
+        <v>610022</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Josefina  Diaz</t>
+          <t>Shamim  Zafar</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>LARA</t>
+          <t>KILMER</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Agustin Lara Elementary Academy</t>
+          <t>Joyce Kilmer Elementary School</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6247,22 +6247,22 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>609993</v>
+        <v>610022</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Yadira  Ramirez</t>
+          <t>Kathleen S Moring</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -6270,12 +6270,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>LARA</t>
+          <t>KILMER</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Agustin Lara Elementary Academy</t>
+          <t>Joyce Kilmer Elementary School</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6285,22 +6285,22 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>610208</v>
+        <v>610022</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Nicole  Allen-Randolph</t>
+          <t>Zarina A Qadir</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>LAVIZZO</t>
+          <t>KILMER</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Mildred I Lavizzo Elementary School</t>
+          <t>Joyce Kilmer Elementary School</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6323,22 +6323,22 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>610208</v>
+        <v>609720</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Alfreda R Smith</t>
+          <t>Dannixa L Velez</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -6346,37 +6346,37 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>LAVIZZO</t>
+          <t>LANE TECH HS</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Mildred I Lavizzo Elementary School</t>
+          <t>Albert G Lane Technical High School</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 14</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>610208</v>
+        <v>609720</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Suekina L Milam</t>
+          <t>CATHERINE  ASHLAW DOHERTY</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -6384,37 +6384,37 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>LAVIZZO</t>
+          <t>LANE TECH HS</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Mildred I Lavizzo Elementary School</t>
+          <t>Albert G Lane Technical High School</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 14</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>609738</v>
+        <v>609993</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Mary E Tookey</t>
+          <t>Maria  Mendez</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -6422,28 +6422,28 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>LINCOLN PARK HS</t>
+          <t>LARA</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Lincoln Park High School</t>
+          <t>Agustin Lara Elementary Academy</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Network 14</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>610040</v>
+        <v>609993</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Adriana  Granada</t>
+          <t>Maria  Mendez-Garcia</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -6460,12 +6460,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LARA</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Agustin Lara Elementary Academy</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6475,13 +6475,13 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>610040</v>
+        <v>609993</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Braulia  Barrera</t>
+          <t>Miriam  Pardina</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -6498,12 +6498,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LARA</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Agustin Lara Elementary Academy</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6513,13 +6513,13 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>610040</v>
+        <v>609993</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ernestina  Lazaro</t>
+          <t>Olivia  Calderon</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -6536,12 +6536,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LARA</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Agustin Lara Elementary Academy</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6551,22 +6551,22 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>610040</v>
+        <v>609993</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Glennys C Corobo</t>
+          <t>Anahi  Martinez</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -6574,12 +6574,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LARA</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Agustin Lara Elementary Academy</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6589,22 +6589,22 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>610040</v>
+        <v>609993</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Martha E Carbajal</t>
+          <t>Hortensia  Elias</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -6612,12 +6612,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LARA</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Agustin Lara Elementary Academy</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6627,22 +6627,22 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>610040</v>
+        <v>609993</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Mihriba P Amin</t>
+          <t>Josefina  Diaz</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -6650,12 +6650,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LARA</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Agustin Lara Elementary Academy</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6665,13 +6665,13 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>610040</v>
+        <v>609993</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Alejandra M Carreno</t>
+          <t>Yadira  Ramirez</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LARA</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Agustin Lara Elementary Academy</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6703,22 +6703,22 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>610040</v>
+        <v>610208</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Angelli A Garcia</t>
+          <t>Nicole  Allen-Randolph</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -6726,12 +6726,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LAVIZZO</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Mildred I Lavizzo Elementary School</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6741,22 +6741,22 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>610040</v>
+        <v>610208</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Cristian G Crespo</t>
+          <t>Alfreda R Smith</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -6764,12 +6764,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LAVIZZO</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Mildred I Lavizzo Elementary School</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6779,22 +6779,22 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>610040</v>
+        <v>610208</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Miroselda  Ortiz</t>
+          <t>Suekina L Milam</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -6802,12 +6802,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LAVIZZO</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Mildred I Lavizzo Elementary School</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6817,22 +6817,22 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>610040</v>
+        <v>609738</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Rosa  Gonzalez</t>
+          <t>Mary E Tookey</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -6840,22 +6840,22 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>LLOYD</t>
+          <t>LINCOLN PARK HS</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Henry D Lloyd Elementary School</t>
+          <t>Lincoln Park High School</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>Network 14</t>
         </is>
       </c>
     </row>
@@ -6865,12 +6865,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Antonio J Valdez</t>
+          <t>Adriana  Granada</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -6903,12 +6903,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Francis J Lucas</t>
+          <t>Braulia  Barrera</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -6937,7 +6937,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>610215</v>
+        <v>610040</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Maria de Jesus  Cristobal</t>
+          <t>Ernestina  Lazaro</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -6954,37 +6954,37 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Francisco I Madero Middle School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>610215</v>
+        <v>610040</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Juan  Munoz</t>
+          <t>Glennys C Corobo</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -6992,37 +6992,37 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Francisco I Madero Middle School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>610215</v>
+        <v>610040</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Elsa  Vargas</t>
+          <t>Martha E Carbajal</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -7030,37 +7030,37 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Francisco I Madero Middle School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>610215</v>
+        <v>610040</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Esmeralda  Arroyo</t>
+          <t>Mihriba P Amin</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -7068,37 +7068,37 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Francisco I Madero Middle School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>610215</v>
+        <v>610040</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Mary  Dybas</t>
+          <t>Alejandra M Carreno</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -7106,37 +7106,37 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Francisco I Madero Middle School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>610215</v>
+        <v>610040</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Miguel  Fragoso</t>
+          <t>Angelli A Garcia</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -7144,37 +7144,37 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Francisco I Madero Middle School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>610052</v>
+        <v>610040</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ANITA  LAVERN</t>
+          <t>Cristian G Crespo</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -7182,12 +7182,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MANN</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Horace Mann Elementary School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7197,22 +7197,22 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>610052</v>
+        <v>610040</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>BETTY J WILSON</t>
+          <t>Miroselda  Ortiz</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -7220,12 +7220,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MANN</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Horace Mann Elementary School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7235,22 +7235,22 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>610052</v>
+        <v>610040</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Fransene  Doyle Rockman</t>
+          <t>Rosa  Gonzalez</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -7258,12 +7258,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MANN</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Horace Mann Elementary School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7273,22 +7273,22 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>609968</v>
+        <v>610040</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Justin  Root</t>
+          <t>Antonio J Valdez</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -7296,12 +7296,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MCAULIFFE</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Sharon Christa McAuliffe Elementary School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7311,13 +7311,13 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Network 4</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>609968</v>
+        <v>610040</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Erin V Pendergast</t>
+          <t>Francis J Lucas</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -7334,12 +7334,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MCAULIFFE</t>
+          <t>LLOYD</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Sharon Christa McAuliffe Elementary School</t>
+          <t>Henry D Lloyd Elementary School</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7349,22 +7349,22 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Network 4</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>610063</v>
+        <v>610215</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Esmeralda  Arroyo</t>
+          <t>Maria de Jesus  Cristobal</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -7372,17 +7372,17 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MCCORMICK</t>
+          <t>MADERO</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Cyrus H McCormick Elementary School</t>
+          <t>Francisco I Madero Middle School</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -7393,16 +7393,16 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>610312</v>
+        <v>610215</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Rhonda  Dabner</t>
+          <t>Juan  Munoz</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -7410,28 +7410,28 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MCDOWELL</t>
+          <t>MADERO</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Mary E McDowell Elementary School</t>
+          <t>Francisco I Madero Middle School</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>610312</v>
+        <v>610215</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Diamond N Gray</t>
+          <t>Elsa  Vargas</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -7448,28 +7448,28 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MCDOWELL</t>
+          <t>MADERO</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Mary E McDowell Elementary School</t>
+          <t>Francisco I Madero Middle School</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>610312</v>
+        <v>610215</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Joseph M Stovall</t>
+          <t>Esmeralda  Arroyo</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -7486,37 +7486,37 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MCDOWELL</t>
+          <t>MADERO</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Mary E McDowell Elementary School</t>
+          <t>Francisco I Madero Middle School</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>610171</v>
+        <v>610215</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Tanea Z Birden</t>
+          <t>Mary  Dybas</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -7524,28 +7524,28 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MIRELES</t>
+          <t>MADERO</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Arnold Mireles Elementary Academy</t>
+          <t>Francisco I Madero Middle School</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>610073</v>
+        <v>610215</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Becky L Benkiser</t>
+          <t>Miguel  Fragoso</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -7562,37 +7562,37 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MITCHELL</t>
+          <t>MADERO</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Ellen Mitchell Elementary School</t>
+          <t>Francisco I Madero Middle School</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>610076</v>
+        <v>610052</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Bradley I Meyers</t>
+          <t>ANITA  LAVERN</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -7600,12 +7600,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MOOS</t>
+          <t>MANN</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Bernhard Moos Elementary School</t>
+          <t>Horace Mann Elementary School</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7615,22 +7615,22 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Network 5</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>610076</v>
+        <v>610052</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Tiffany  Frayer</t>
+          <t>BETTY J WILSON</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -7638,12 +7638,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MOOS</t>
+          <t>MANN</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Bernhard Moos Elementary School</t>
+          <t>Horace Mann Elementary School</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7653,13 +7653,13 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Network 5</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>610231</v>
+        <v>610052</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Jennifer L Smith</t>
+          <t>Fransene  Doyle Rockman</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -7676,12 +7676,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>NATIONAL TEACHERS</t>
+          <t>MANN</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>National Teachers Elementary Academy</t>
+          <t>Horace Mann Elementary School</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7691,13 +7691,13 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>AUSL</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>610193</v>
+        <v>609968</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Charles D Bessett</t>
+          <t>Justin  Root</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -7714,12 +7714,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>NEW SULLIVAN</t>
+          <t>MCAULIFFE</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>William K New Sullivan Elementary School</t>
+          <t>Sharon Christa McAuliffe Elementary School</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7729,22 +7729,22 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 4</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>610193</v>
+        <v>609968</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Carolyn M Nicholson</t>
+          <t>Erin V Pendergast</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -7752,12 +7752,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>NEW SULLIVAN</t>
+          <t>MCAULIFFE</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>William K New Sullivan Elementary School</t>
+          <t>Sharon Christa McAuliffe Elementary School</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7767,22 +7767,22 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 4</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>610193</v>
+        <v>610063</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Diana L James</t>
+          <t>Esmeralda  Arroyo</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -7790,12 +7790,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>NEW SULLIVAN</t>
+          <t>MCCORMICK</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>William K New Sullivan Elementary School</t>
+          <t>Cyrus H McCormick Elementary School</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7805,22 +7805,22 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>610193</v>
+        <v>610312</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Chemell  Hampton</t>
+          <t>Rhonda  Dabner</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -7828,12 +7828,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>NEW SULLIVAN</t>
+          <t>MCDOWELL</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>William K New Sullivan Elementary School</t>
+          <t>Mary E McDowell Elementary School</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7843,13 +7843,13 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>610193</v>
+        <v>610312</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Sophia  Ulloa</t>
+          <t>Diamond N Gray</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -7866,12 +7866,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>NEW SULLIVAN</t>
+          <t>MCDOWELL</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>William K New Sullivan Elementary School</t>
+          <t>Mary E McDowell Elementary School</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7881,22 +7881,22 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>610096</v>
+        <v>610312</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Jose A Estela</t>
+          <t>Joseph M Stovall</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -7904,12 +7904,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>NIGHTINGALE</t>
+          <t>MCDOWELL</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Florence Nightingale Elementary School</t>
+          <t>Mary E McDowell Elementary School</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7919,13 +7919,13 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Network 8</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>610099</v>
+        <v>610171</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Margaret  Castiglione</t>
+          <t>Tanea Z Birden</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -7942,12 +7942,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>NORWOOD PARK</t>
+          <t>MIRELES</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Norwood Park Elementary School</t>
+          <t>Arnold Mireles Elementary Academy</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7957,22 +7957,22 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>610101</v>
+        <v>610073</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Gloria L Zuniga</t>
+          <t>Becky L Benkiser</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -7980,12 +7980,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>OGDEN ES</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>William B Ogden Elementary School</t>
+          <t>Ellen Mitchell Elementary School</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7995,13 +7995,13 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>610101</v>
+        <v>610076</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Kelly M Sparks</t>
+          <t>Bradley I Meyers</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -8018,12 +8018,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>OGDEN ES</t>
+          <t>MOOS</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>William B Ogden Elementary School</t>
+          <t>Bernhard Moos Elementary School</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8033,22 +8033,22 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 5</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>610101</v>
+        <v>610076</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Lynn S Pavalon</t>
+          <t>Tiffany  Frayer</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>OGDEN ES</t>
+          <t>MOOS</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>William B Ogden Elementary School</t>
+          <t>Bernhard Moos Elementary School</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8071,22 +8071,22 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 5</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>610101</v>
+        <v>610231</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Rebecca R Wells</t>
+          <t>Jennifer L Smith</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -8094,12 +8094,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>OGDEN ES</t>
+          <t>NATIONAL TEACHERS</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>William B Ogden Elementary School</t>
+          <t>National Teachers Elementary Academy</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8109,22 +8109,22 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>AUSL</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>610103</v>
+        <v>610193</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Terence  Knight</t>
+          <t>Charles D Bessett</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -8132,12 +8132,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>OKEEFFE</t>
+          <t>NEW SULLIVAN</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Isabelle C O'Keeffe Elementary School</t>
+          <t>William K New Sullivan Elementary School</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8147,22 +8147,22 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>AUSL</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>610103</v>
+        <v>610193</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Nataska K Kidd</t>
+          <t>Carolyn M Nicholson</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -8170,12 +8170,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>OKEEFFE</t>
+          <t>NEW SULLIVAN</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Isabelle C O'Keeffe Elementary School</t>
+          <t>William K New Sullivan Elementary School</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8185,22 +8185,22 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>AUSL</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>610103</v>
+        <v>610193</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Pauline  Nelson</t>
+          <t>Diana L James</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -8208,12 +8208,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>OKEEFFE</t>
+          <t>NEW SULLIVAN</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Isabelle C O'Keeffe Elementary School</t>
+          <t>William K New Sullivan Elementary School</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8223,13 +8223,13 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>AUSL</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>610103</v>
+        <v>610193</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Vivian L McDonald</t>
+          <t>Chemell  Hampton</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -8246,12 +8246,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>OKEEFFE</t>
+          <t>NEW SULLIVAN</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Isabelle C O'Keeffe Elementary School</t>
+          <t>William K New Sullivan Elementary School</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8261,22 +8261,22 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>AUSL</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>610103</v>
+        <v>610193</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Deidra A Turner</t>
+          <t>Sophia  Ulloa</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -8284,12 +8284,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>OKEEFFE</t>
+          <t>NEW SULLIVAN</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Isabelle C O'Keeffe Elementary School</t>
+          <t>William K New Sullivan Elementary School</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8299,22 +8299,22 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>AUSL</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>610104</v>
+        <v>610096</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Rose  Cisarik</t>
+          <t>Jose A Estela</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -8322,12 +8322,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ONAHAN</t>
+          <t>NIGHTINGALE</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>William J Onahan Elementary School</t>
+          <t>Florence Nightingale Elementary School</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8337,13 +8337,13 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>610104</v>
+        <v>610099</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Angela  DeVinney</t>
+          <t>Margaret  Castiglione</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -8360,12 +8360,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ONAHAN</t>
+          <t>NORWOOD PARK</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>William J Onahan Elementary School</t>
+          <t>Norwood Park Elementary School</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -8381,16 +8381,16 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>610104</v>
+        <v>610101</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Katherine M Gallagly</t>
+          <t>Gloria L Zuniga</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -8398,12 +8398,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ONAHAN</t>
+          <t>OGDEN ES</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>William J Onahan Elementary School</t>
+          <t>William B Ogden Elementary School</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -8413,13 +8413,13 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>609950</v>
+        <v>610101</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Ofelia  Lopez</t>
+          <t>Kelly M Sparks</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -8436,12 +8436,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ORTIZ DE DOMINGUEZ</t>
+          <t>OGDEN ES</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Josefa Ortiz De Dominguez Elementary School</t>
+          <t>William B Ogden Elementary School</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8451,22 +8451,22 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>610112</v>
+        <v>610101</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Sabrinia R Allen</t>
+          <t>Lynn S Pavalon</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -8474,12 +8474,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>PARKER</t>
+          <t>OGDEN ES</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Francis W Parker Elementary Community Academy</t>
+          <t>William B Ogden Elementary School</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -8489,13 +8489,13 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Network 11</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>610116</v>
+        <v>610101</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Rita M Daugherty</t>
+          <t>Rebecca R Wells</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>PARKSIDE</t>
+          <t>OGDEN ES</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Parkside Elementary Community Academy</t>
+          <t>William B Ogden Elementary School</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8527,22 +8527,22 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>610116</v>
+        <v>610103</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Sabrina  JONES</t>
+          <t>Terence  Knight</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -8550,12 +8550,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>PARKSIDE</t>
+          <t>OKEEFFE</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Parkside Elementary Community Academy</t>
+          <t>Isabelle C O'Keeffe Elementary School</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8565,22 +8565,22 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>AUSL</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>609680</v>
+        <v>610103</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Tiffany L Childress</t>
+          <t>Nataska K Kidd</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -8588,37 +8588,37 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>PAYTON HS</t>
+          <t>OKEEFFE</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Walter Payton College Preparatory High School</t>
+          <t>Isabelle C O'Keeffe Elementary School</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>AUSL</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>610122</v>
+        <v>610103</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Evan M Trad</t>
+          <t>Pauline  Nelson</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -8626,12 +8626,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>PEIRCE</t>
+          <t>OKEEFFE</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Helen Peirce International Studies ES</t>
+          <t>Isabelle C O'Keeffe Elementary School</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8641,22 +8641,22 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>AUSL</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>610122</v>
+        <v>610103</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Geri L Baumgarten</t>
+          <t>Vivian L McDonald</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -8664,12 +8664,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>PEIRCE</t>
+          <t>OKEEFFE</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Helen Peirce International Studies ES</t>
+          <t>Isabelle C O'Keeffe Elementary School</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -8679,13 +8679,13 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>AUSL</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>609872</v>
+        <v>610103</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Roberta K Hermanas</t>
+          <t>Deidra A Turner</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -8702,12 +8702,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>PEREZ</t>
+          <t>OKEEFFE</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Manuel Perez Elementary School</t>
+          <t>Isabelle C O'Keeffe Elementary School</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8717,13 +8717,13 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>AUSL</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>610135</v>
+        <v>610104</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Elisa A Costanza</t>
+          <t>Rose  Cisarik</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>PORTAGE PARK</t>
+          <t>ONAHAN</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Portage Park Elementary School</t>
+          <t>William J Onahan Elementary School</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8761,7 +8761,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>610135</v>
+        <v>610104</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Christopher R Smith</t>
+          <t>Angela  DeVinney</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -8778,12 +8778,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>PORTAGE PARK</t>
+          <t>ONAHAN</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Portage Park Elementary School</t>
+          <t>William J Onahan Elementary School</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8799,7 +8799,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>610135</v>
+        <v>610104</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Meghan C Krawczykowski</t>
+          <t>Katherine M Gallagly</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -8816,12 +8816,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>PORTAGE PARK</t>
+          <t>ONAHAN</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Portage Park Elementary School</t>
+          <t>William J Onahan Elementary School</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8837,16 +8837,16 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>610533</v>
+        <v>609950</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Andrea H Montgomery</t>
+          <t>Ofelia  Lopez</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -8854,12 +8854,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>PRIETO</t>
+          <t>ORTIZ DE DOMINGUEZ</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Dr Jorge Prieto Math and Science</t>
+          <t>Josefa Ortiz De Dominguez Elementary School</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8869,22 +8869,22 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>609941</v>
+        <v>610112</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Darrell F Walton</t>
+          <t>Joyce S Fair</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -8892,12 +8892,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>RANDOLPH</t>
+          <t>PARKER</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Asa Philip Randolph Elementary School</t>
+          <t>Francis W Parker Elementary Community Academy</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8913,16 +8913,16 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>610142</v>
+        <v>610112</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Jason C Evans</t>
+          <t>Largenette  Redding</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -8930,12 +8930,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>PARKER</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>William H Ray Elementary School</t>
+          <t>Francis W Parker Elementary Community Academy</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8945,22 +8945,22 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Network 9</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>610125</v>
+        <v>610112</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Martin L Robles</t>
+          <t>Sabrinia R Allen</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -8968,12 +8968,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>PARKER</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Irma C Ruiz Elementary School</t>
+          <t>Francis W Parker Elementary Community Academy</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8983,13 +8983,13 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>610125</v>
+        <v>610116</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Zenia  Ruiz</t>
+          <t>Rita M Daugherty</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>PARKSIDE</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Irma C Ruiz Elementary School</t>
+          <t>Parkside Elementary Community Academy</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9021,22 +9021,22 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>610125</v>
+        <v>610116</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Jill M Guzman</t>
+          <t>Sabrina  JONES</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>PARKSIDE</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Irma C Ruiz Elementary School</t>
+          <t>Parkside Elementary Community Academy</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9059,22 +9059,22 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>610342</v>
+        <v>609680</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Thomas(Cal)  Thixton</t>
+          <t>Tiffany L Childress</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -9082,37 +9082,37 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SABIN</t>
+          <t>PAYTON HS</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Albert R Sabin Elementary Magnet School</t>
+          <t>Walter Payton College Preparatory High School</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Network 6</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>610155</v>
+        <v>610122</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Stephen P Couper</t>
+          <t>Evan M Trad</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -9120,12 +9120,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SAUGANASH</t>
+          <t>PEIRCE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Sauganash Elementary School</t>
+          <t>Helen Peirce International Studies ES</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9135,22 +9135,22 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>610159</v>
+        <v>610122</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Nettie J Koster</t>
+          <t>Geri L Baumgarten</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -9158,12 +9158,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SCAMMON</t>
+          <t>PEIRCE</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Jonathan Y Scammon Elementary School</t>
+          <t>Helen Peirce International Studies ES</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9173,22 +9173,22 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>610165</v>
+        <v>609872</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Reynalda  Batres</t>
+          <t>Roberta K Hermanas</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SCHUBERT</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Franz Peter Schubert Elementary School</t>
+          <t>Manuel Perez Elementary School</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9211,22 +9211,22 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>609729</v>
+        <v>610135</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Samantha K Williams</t>
+          <t>Elisa A Costanza</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -9234,28 +9234,28 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SCHURZ HS</t>
+          <t>PORTAGE PARK</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Carl Schurz High School</t>
+          <t>Portage Park Elementary School</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Network 14</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>610174</v>
+        <v>610135</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Anabel  Lamas</t>
+          <t>Christopher R Smith</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -9272,12 +9272,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SHIELDS</t>
+          <t>PORTAGE PARK</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>James Shields Elementary School</t>
+          <t>Portage Park Elementary School</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -9287,22 +9287,22 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Network 8</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>610182</v>
+        <v>610135</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Christopher L Smith</t>
+          <t>Meghan C Krawczykowski</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -9310,12 +9310,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>PORTAGE PARK</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Hannah G Solomon Elementary School</t>
+          <t>Portage Park Elementary School</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9331,16 +9331,16 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>610182</v>
+        <v>610533</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Sherryl  Reiss</t>
+          <t>Andrea H Montgomery</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -9348,12 +9348,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>PRIETO</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Hannah G Solomon Elementary School</t>
+          <t>Dr Jorge Prieto Math and Science</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -9363,22 +9363,22 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>610185</v>
+        <v>610229</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Odilia  Garcia</t>
+          <t>Bianca B Yarbrough</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -9386,12 +9386,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>STEVENSON</t>
+          <t>PRITZKER</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Adlai E Stevenson Elementary School</t>
+          <t>A.N. Pritzker School</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 6</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>610185</v>
+        <v>609941</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Jacqueline  Corona</t>
+          <t>Darrell F Walton</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -9424,12 +9424,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>STEVENSON</t>
+          <t>RANDOLPH</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Adlai E Stevenson Elementary School</t>
+          <t>Asa Philip Randolph Elementary School</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -9439,22 +9439,22 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>610185</v>
+        <v>610142</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Maricela  Carreno</t>
+          <t>Jason C Evans</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -9462,12 +9462,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>STEVENSON</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Adlai E Stevenson Elementary School</t>
+          <t>William H Ray Elementary School</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -9477,13 +9477,13 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 9</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>610191</v>
+        <v>610125</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Olga M Estrada</t>
+          <t>Martin L Robles</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -9500,12 +9500,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>STONE</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Stone Elementary Scholastic Academy</t>
+          <t>Irma C Ruiz Elementary School</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -9515,13 +9515,13 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>610206</v>
+        <v>610125</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Paula  Porcayo</t>
+          <t>Zenia  Ruiz</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -9538,12 +9538,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TWAIN</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Mark Twain Elementary School</t>
+          <t>Irma C Ruiz Elementary School</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9553,13 +9553,13 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>610206</v>
+        <v>610125</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Alexia N Carther</t>
+          <t>Jill M Guzman</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -9576,12 +9576,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>TWAIN</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Mark Twain Elementary School</t>
+          <t>Irma C Ruiz Elementary School</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -9591,22 +9591,22 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>610206</v>
+        <v>610342</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Michael  Maciasz</t>
+          <t>Thomas(Cal)  Thixton</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -9614,12 +9614,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TWAIN</t>
+          <t>SABIN</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Mark Twain Elementary School</t>
+          <t>Albert R Sabin Elementary Magnet School</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9629,22 +9629,22 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 6</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>609766</v>
+        <v>610155</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Dara G Bayliss</t>
+          <t>Stephen P Couper</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -9652,37 +9652,37 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>VAUGHN HS</t>
+          <t>SAUGANASH</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Jacqueline B Vaughn Occupational High School</t>
+          <t>Sauganash Elementary School</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Network 14</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>610218</v>
+        <v>610159</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Sangai A Turner</t>
+          <t>Nettie J Koster</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -9690,12 +9690,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>WARREN</t>
+          <t>SCAMMON</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Joseph Warren Elementary School</t>
+          <t>Jonathan Y Scammon Elementary School</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -9705,22 +9705,22 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>610218</v>
+        <v>610165</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Tracey Y Kidd</t>
+          <t>Reynalda  Batres</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -9728,12 +9728,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>WARREN</t>
+          <t>SCHUBERT</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Joseph Warren Elementary School</t>
+          <t>Franz Peter Schubert Elementary School</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9743,22 +9743,22 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>610124</v>
+        <v>609729</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Cynthia D Godwin</t>
+          <t>Samantha K Williams</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -9766,28 +9766,28 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>WASHINGTON H ES</t>
+          <t>SCHURZ HS</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Harold Washington Elementary School</t>
+          <t>Carl Schurz High School</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 14</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>610124</v>
+        <v>610174</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Ashley  Benson</t>
+          <t>Anabel  Lamas</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -9804,12 +9804,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>WASHINGTON H ES</t>
+          <t>SHIELDS</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Harold Washington Elementary School</t>
+          <t>James Shields Elementary School</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9819,22 +9819,22 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>610124</v>
+        <v>610174</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Dorothea  Jackson</t>
+          <t>Maria  Carmona</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -9842,12 +9842,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>WASHINGTON H ES</t>
+          <t>SHIELDS</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Harold Washington Elementary School</t>
+          <t>James Shields Elementary School</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9857,22 +9857,22 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>610124</v>
+        <v>610534</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Joann  Hancock</t>
+          <t>Maneesh  Limaye</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>WASHINGTON H ES</t>
+          <t>SKINNER NORTH</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Harold Washington Elementary School</t>
+          <t>Skinner North</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9895,22 +9895,22 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 4</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>610124</v>
+        <v>610182</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Ona J Jackson-Purnell</t>
+          <t>Christopher L Smith</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -9918,12 +9918,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>WASHINGTON H ES</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Harold Washington Elementary School</t>
+          <t>Hannah G Solomon Elementary School</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9933,13 +9933,13 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>610227</v>
+        <v>610182</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Adriana  Gonzalez</t>
+          <t>Sherryl  Reiss</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -9956,12 +9956,12 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>WHITNEY</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Eli Whitney Elementary School</t>
+          <t>Hannah G Solomon Elementary School</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9971,13 +9971,13 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>609755</v>
+        <v>610185</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Tyrone  Slaughter</t>
+          <t>Odilia  Garcia</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -9994,58 +9994,780 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>YOUNG HS</t>
+          <t>STEVENSON</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Whitney M Young Magnet High School</t>
+          <t>Adlai E Stevenson Elementary School</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 10</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
+        <v>610185</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>PARENT</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Jacqueline  Corona</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>STEVENSON</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Adlai E Stevenson Elementary School</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Network 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>610185</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>TEACHER</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Maricela  Carreno</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>STEVENSON</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Adlai E Stevenson Elementary School</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Network 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>610191</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>NONTCHSTAFF</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Olga M Estrada</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>STONE</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Stone Elementary Scholastic Academy</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Network 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>610191</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>PARENT</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Ayana A Rhodes-Morton</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>STONE</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Stone Elementary Scholastic Academy</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Network 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>610206</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>PARENT</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Paula  Porcayo</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>TWAIN</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Mark Twain Elementary School</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Network 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>610206</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>TEACHER</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Alexia N Carther</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>TWAIN</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Mark Twain Elementary School</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Network 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>610206</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>TEACHER</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Michael  Maciasz</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>TWAIN</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Mark Twain Elementary School</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Network 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>609766</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>TEACHER</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Dara G Bayliss</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>VAUGHN HS</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Jacqueline B Vaughn Occupational High School</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Network 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>610218</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>TEACHER</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Sangai A Turner</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>WARREN</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Joseph Warren Elementary School</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Network 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>610218</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>TEACHER</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Tracey Y Kidd</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>WARREN</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Joseph Warren Elementary School</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Network 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>610219</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>PARENT</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Nancy P Alvarez</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>WASHINGTON G ES</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>George Washington Elementary School</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Network 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>610124</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>NONTCHSTAFF</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Cynthia D Godwin</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>WASHINGTON H ES</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Harold Washington Elementary School</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Network 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>610124</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>PARENT</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Ashley  Benson</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>WASHINGTON H ES</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Harold Washington Elementary School</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Network 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>610124</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>PARENT</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Dorothea  Jackson</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>WASHINGTON H ES</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Harold Washington Elementary School</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Network 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>610124</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>TEACHER</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Joann  Hancock</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>WASHINGTON H ES</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Harold Washington Elementary School</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Network 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>610124</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>TEACHER</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Ona J Jackson-Purnell</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>WASHINGTON H ES</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Harold Washington Elementary School</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Network 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>610223</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>COMMUNITY</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Dionne M Frye</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>WENTWORTH</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Daniel S Wentworth Elementary School</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Network 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>610227</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>PARENT</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Adriana  Gonzalez</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>WHITNEY</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Eli Whitney Elementary School</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Network 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
         <v>609755</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>NONTCHSTAFF</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Tyrone  Slaughter</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>YOUNG HS</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Whitney M Young Magnet High School</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>ISP</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>609755</v>
+      </c>
+      <c r="B272" t="inlineStr">
         <is>
           <t>TEACHER</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>Anne M Boyle</t>
         </is>
       </c>
-      <c r="D253" t="n">
-        <v>0</v>
-      </c>
-      <c r="E253" t="inlineStr">
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="inlineStr">
         <is>
           <t>YOUNG HS</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
+      <c r="F272" t="inlineStr">
         <is>
           <t>Whitney M Young Magnet High School</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>HS</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H272" t="inlineStr">
         <is>
           <t>ISP</t>
         </is>

--- a/data/results/lsc_results_2022.xlsx
+++ b/data/results/lsc_results_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1193"/>
+  <dimension ref="A1:H1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40538,7 +40538,7 @@
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>Kimberly  Shore</t>
+          <t>Jennifer  Trautvetter</t>
         </is>
       </c>
       <c r="D1056" t="n">
@@ -40576,7 +40576,7 @@
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>Michael O Kurtz</t>
+          <t>Kimberly  Shore</t>
         </is>
       </c>
       <c r="D1057" t="n">
@@ -40609,12 +40609,12 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>Jeremy  Parker</t>
+          <t>Michael O Kurtz</t>
         </is>
       </c>
       <c r="D1058" t="n">
@@ -40643,16 +40643,16 @@
     </row>
     <row r="1059">
       <c r="A1059" s="1" t="n">
-        <v>609734</v>
+        <v>610191</v>
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>Alexandra D Davila</t>
+          <t>Jeremy  Parker</t>
         </is>
       </c>
       <c r="D1059" t="n">
@@ -40660,22 +40660,22 @@
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>TAFT HS</t>
+          <t>STONE</t>
         </is>
       </c>
       <c r="F1059" t="inlineStr">
         <is>
-          <t>William Howard Taft High School</t>
+          <t>Stone Elementary Scholastic Academy</t>
         </is>
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Network 14</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
@@ -40690,7 +40690,7 @@
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>Anne M Beaulieu</t>
+          <t>Alexandra D Davila</t>
         </is>
       </c>
       <c r="D1060" t="n">
@@ -40723,12 +40723,12 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>Scott M Plencner</t>
+          <t>Anne M Beaulieu</t>
         </is>
       </c>
       <c r="D1061" t="n">
@@ -40757,16 +40757,16 @@
     </row>
     <row r="1062">
       <c r="A1062" s="1" t="n">
-        <v>610279</v>
+        <v>609734</v>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>Christopher A Peterson</t>
+          <t>Scott M Plencner</t>
         </is>
       </c>
       <c r="D1062" t="n">
@@ -40774,22 +40774,22 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>TANNER</t>
+          <t>TAFT HS</t>
         </is>
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>Henry O Tanner Elementary School</t>
+          <t>William Howard Taft High School</t>
         </is>
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 14</t>
         </is>
       </c>
     </row>
@@ -40799,12 +40799,12 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>Chiquitta  Warfield</t>
+          <t>Christopher A Peterson</t>
         </is>
       </c>
       <c r="D1063" t="n">
@@ -40837,12 +40837,12 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>Launder F Carter</t>
+          <t>Chiquitta  Warfield</t>
         </is>
       </c>
       <c r="D1064" t="n">
@@ -40880,7 +40880,7 @@
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>Tanneshia  Wilson- Wearring</t>
+          <t>Launder F Carter</t>
         </is>
       </c>
       <c r="D1065" t="n">
@@ -40909,16 +40909,16 @@
     </row>
     <row r="1066">
       <c r="A1066" s="1" t="n">
-        <v>609921</v>
+        <v>610279</v>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>Faustina  Vargas</t>
+          <t>Tanneshia  Wilson- Wearring</t>
         </is>
       </c>
       <c r="D1066" t="n">
@@ -40926,12 +40926,12 @@
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>TELPOCHCALLI</t>
+          <t>TANNER</t>
         </is>
       </c>
       <c r="F1066" t="inlineStr">
         <is>
-          <t>Telpochcalli Elementary School</t>
+          <t>Henry O Tanner Elementary School</t>
         </is>
       </c>
       <c r="G1066" t="inlineStr">
@@ -40941,22 +40941,22 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" s="1" t="n">
-        <v>610202</v>
+        <v>609921</v>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>Vonzetta  Williams</t>
+          <t>Faustina  Vargas</t>
         </is>
       </c>
       <c r="D1067" t="n">
@@ -40964,12 +40964,12 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>TILTON</t>
+          <t>TELPOCHCALLI</t>
         </is>
       </c>
       <c r="F1067" t="inlineStr">
         <is>
-          <t>George W Tilton Elementary School</t>
+          <t>Telpochcalli Elementary School</t>
         </is>
       </c>
       <c r="G1067" t="inlineStr">
@@ -40979,7 +40979,7 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Network 5</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
@@ -40989,12 +40989,12 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>Helen  Sumblen</t>
+          <t>Vonzetta  Williams</t>
         </is>
       </c>
       <c r="D1068" t="n">
@@ -41032,7 +41032,7 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>Margaret  Walton</t>
+          <t>Helen  Sumblen</t>
         </is>
       </c>
       <c r="D1069" t="n">
@@ -41070,7 +41070,7 @@
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>Robbeat C Tolliver</t>
+          <t>Margaret  Walton</t>
         </is>
       </c>
       <c r="D1070" t="n">
@@ -41108,7 +41108,7 @@
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>Thalia  Ray</t>
+          <t>Robbeat C Tolliver</t>
         </is>
       </c>
       <c r="D1071" t="n">
@@ -41141,12 +41141,12 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>Joyce H Dockery</t>
+          <t>Thalia  Ray</t>
         </is>
       </c>
       <c r="D1072" t="n">
@@ -41184,7 +41184,7 @@
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>Lavita J Buckner</t>
+          <t>Joyce H Dockery</t>
         </is>
       </c>
       <c r="D1073" t="n">
@@ -41213,16 +41213,16 @@
     </row>
     <row r="1074">
       <c r="A1074" s="1" t="n">
-        <v>610203</v>
+        <v>610202</v>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>Maria L Aguilera</t>
+          <t>Lavita J Buckner</t>
         </is>
       </c>
       <c r="D1074" t="n">
@@ -41230,12 +41230,12 @@
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>TONTI</t>
+          <t>TILTON</t>
         </is>
       </c>
       <c r="F1074" t="inlineStr">
         <is>
-          <t>Enrico Tonti Elementary School</t>
+          <t>George W Tilton Elementary School</t>
         </is>
       </c>
       <c r="G1074" t="inlineStr">
@@ -41245,7 +41245,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Network 8</t>
+          <t>Network 5</t>
         </is>
       </c>
     </row>
@@ -41255,12 +41255,12 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>Lorre  Meek</t>
+          <t>Maria L Aguilera</t>
         </is>
       </c>
       <c r="D1075" t="n">
@@ -41298,7 +41298,7 @@
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>Maria  Tellez</t>
+          <t>Lorre  Meek</t>
         </is>
       </c>
       <c r="D1076" t="n">
@@ -41327,16 +41327,16 @@
     </row>
     <row r="1077">
       <c r="A1077" s="1" t="n">
-        <v>610206</v>
+        <v>610203</v>
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>Paula  Porcayo</t>
+          <t>Maria  Tellez</t>
         </is>
       </c>
       <c r="D1077" t="n">
@@ -41344,12 +41344,12 @@
       </c>
       <c r="E1077" t="inlineStr">
         <is>
-          <t>TWAIN</t>
+          <t>TONTI</t>
         </is>
       </c>
       <c r="F1077" t="inlineStr">
         <is>
-          <t>Mark Twain Elementary School</t>
+          <t>Enrico Tonti Elementary School</t>
         </is>
       </c>
       <c r="G1077" t="inlineStr">
@@ -41359,7 +41359,7 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Network 10</t>
+          <t>Network 8</t>
         </is>
       </c>
     </row>
@@ -41369,12 +41369,12 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>Alexia N Carther</t>
+          <t>Paula  Porcayo</t>
         </is>
       </c>
       <c r="D1078" t="n">
@@ -41412,7 +41412,7 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>Michael  Maciasz</t>
+          <t>Alexia N Carther</t>
         </is>
       </c>
       <c r="D1079" t="n">
@@ -41441,16 +41441,16 @@
     </row>
     <row r="1080">
       <c r="A1080" s="1" t="n">
-        <v>610394</v>
+        <v>610206</v>
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>Karonda L Locust</t>
+          <t>Michael  Maciasz</t>
         </is>
       </c>
       <c r="D1080" t="n">
@@ -41458,22 +41458,22 @@
       </c>
       <c r="E1080" t="inlineStr">
         <is>
-          <t>UPLIFT HS</t>
+          <t>TWAIN</t>
         </is>
       </c>
       <c r="F1080" t="inlineStr">
         <is>
-          <t>Uplift Community High School</t>
+          <t>Mark Twain Elementary School</t>
         </is>
       </c>
       <c r="G1080" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Network 14</t>
+          <t>Network 10</t>
         </is>
       </c>
     </row>
@@ -41488,7 +41488,7 @@
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>Taschaunda N Hall</t>
+          <t>Karonda L Locust</t>
         </is>
       </c>
       <c r="D1081" t="n">
@@ -41521,12 +41521,12 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>Margaret L Motley</t>
+          <t>Taschaunda N Hall</t>
         </is>
       </c>
       <c r="D1082" t="n">
@@ -41559,12 +41559,12 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>Ieshia  Thomason</t>
+          <t>Margaret L Motley</t>
         </is>
       </c>
       <c r="D1083" t="n">
@@ -41602,7 +41602,7 @@
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>Robin S Johnson</t>
+          <t>Ieshia  Thomason</t>
         </is>
       </c>
       <c r="D1084" t="n">
@@ -41635,12 +41635,12 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>Andrew J Bailey</t>
+          <t>Robin S Johnson</t>
         </is>
       </c>
       <c r="D1085" t="n">
@@ -41678,7 +41678,7 @@
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>Karen  Zaccor</t>
+          <t>Andrew J Bailey</t>
         </is>
       </c>
       <c r="D1086" t="n">
@@ -41716,7 +41716,7 @@
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>Myra  McNeill</t>
+          <t>Karen  Zaccor</t>
         </is>
       </c>
       <c r="D1087" t="n">
@@ -41745,16 +41745,16 @@
     </row>
     <row r="1088">
       <c r="A1088" s="1" t="n">
-        <v>609766</v>
+        <v>610394</v>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>Malcolm A Maxfield</t>
+          <t>Myra  McNeill</t>
         </is>
       </c>
       <c r="D1088" t="n">
@@ -41762,12 +41762,12 @@
       </c>
       <c r="E1088" t="inlineStr">
         <is>
-          <t>VAUGHN HS</t>
+          <t>UPLIFT HS</t>
         </is>
       </c>
       <c r="F1088" t="inlineStr">
         <is>
-          <t>Jacqueline B Vaughn Occupational High School</t>
+          <t>Uplift Community High School</t>
         </is>
       </c>
       <c r="G1088" t="inlineStr">
@@ -41792,7 +41792,7 @@
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>Rochelle  Berry</t>
+          <t>Malcolm A Maxfield</t>
         </is>
       </c>
       <c r="D1089" t="n">
@@ -41825,12 +41825,12 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>Catherine F Henchek</t>
+          <t>Rochelle  Berry</t>
         </is>
       </c>
       <c r="D1090" t="n">
@@ -41868,7 +41868,7 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>Jacqueline S Wolk</t>
+          <t>Catherine F Henchek</t>
         </is>
       </c>
       <c r="D1091" t="n">
@@ -41906,7 +41906,7 @@
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>Maria  Pineda</t>
+          <t>Jacqueline S Wolk</t>
         </is>
       </c>
       <c r="D1092" t="n">
@@ -41939,12 +41939,12 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Dara G Bayliss</t>
+          <t>Maria  Pineda</t>
         </is>
       </c>
       <c r="D1093" t="n">
@@ -41982,7 +41982,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>Erick  Tellez Teran</t>
+          <t>Dara G Bayliss</t>
         </is>
       </c>
       <c r="D1094" t="n">
@@ -42011,16 +42011,16 @@
     </row>
     <row r="1095">
       <c r="A1095" s="1" t="n">
-        <v>610209</v>
+        <v>609766</v>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>Brenda  Torres</t>
+          <t>Erick  Tellez Teran</t>
         </is>
       </c>
       <c r="D1095" t="n">
@@ -42028,22 +42028,22 @@
       </c>
       <c r="E1095" t="inlineStr">
         <is>
-          <t>VOLTA</t>
+          <t>VAUGHN HS</t>
         </is>
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>Alessandro Volta Elementary School</t>
+          <t>Jacqueline B Vaughn Occupational High School</t>
         </is>
       </c>
       <c r="G1095" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Network 1</t>
+          <t>Network 14</t>
         </is>
       </c>
     </row>
@@ -42058,7 +42058,7 @@
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>Saking  Sabeeh</t>
+          <t>Brenda  Torres</t>
         </is>
       </c>
       <c r="D1096" t="n">
@@ -42091,12 +42091,12 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Rasheda M Khatri</t>
+          <t>Saking  Sabeeh</t>
         </is>
       </c>
       <c r="D1097" t="n">
@@ -42129,12 +42129,12 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Angel  Torres</t>
+          <t>Rasheda M Khatri</t>
         </is>
       </c>
       <c r="D1098" t="n">
@@ -42172,7 +42172,7 @@
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Sergio I Criollo</t>
+          <t>Angel  Torres</t>
         </is>
       </c>
       <c r="D1099" t="n">
@@ -42205,12 +42205,12 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>Claudia V Xoy</t>
+          <t>Sergio I Criollo</t>
         </is>
       </c>
       <c r="D1100" t="n">
@@ -42248,7 +42248,7 @@
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>Irene  Perez</t>
+          <t>Claudia V Xoy</t>
         </is>
       </c>
       <c r="D1101" t="n">
@@ -42277,16 +42277,16 @@
     </row>
     <row r="1102">
       <c r="A1102" s="1" t="n">
-        <v>610366</v>
+        <v>610209</v>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>Alvin  Williams</t>
+          <t>Irene  Perez</t>
         </is>
       </c>
       <c r="D1102" t="n">
@@ -42294,12 +42294,12 @@
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>WACKER</t>
+          <t>VOLTA</t>
         </is>
       </c>
       <c r="F1102" t="inlineStr">
         <is>
-          <t>Charles H Wacker Elementary School</t>
+          <t>Alessandro Volta Elementary School</t>
         </is>
       </c>
       <c r="G1102" t="inlineStr">
@@ -42309,7 +42309,7 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 1</t>
         </is>
       </c>
     </row>
@@ -42324,7 +42324,7 @@
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>Edwina  Jackson</t>
+          <t>Alvin  Williams</t>
         </is>
       </c>
       <c r="D1103" t="n">
@@ -42357,12 +42357,12 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>Cody  English</t>
+          <t>Edwina  Jackson</t>
         </is>
       </c>
       <c r="D1104" t="n">
@@ -42395,12 +42395,12 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>Anika  Marion</t>
+          <t>Cody  English</t>
         </is>
       </c>
       <c r="D1105" t="n">
@@ -42438,7 +42438,7 @@
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>Cassandra  Cummins</t>
+          <t>Anika  Marion</t>
         </is>
       </c>
       <c r="D1106" t="n">
@@ -42476,7 +42476,7 @@
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>Dimples  McGill</t>
+          <t>Cassandra  Cummins</t>
         </is>
       </c>
       <c r="D1107" t="n">
@@ -42514,7 +42514,7 @@
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Melissa  Reyes</t>
+          <t>Dimples  McGill</t>
         </is>
       </c>
       <c r="D1108" t="n">
@@ -42552,7 +42552,7 @@
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Pamela  Williams</t>
+          <t>Melissa  Reyes</t>
         </is>
       </c>
       <c r="D1109" t="n">
@@ -42590,7 +42590,7 @@
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Richard  Carter</t>
+          <t>Pamela  Williams</t>
         </is>
       </c>
       <c r="D1110" t="n">
@@ -42623,12 +42623,12 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>Devonia M Bridges</t>
+          <t>Richard  Carter</t>
         </is>
       </c>
       <c r="D1111" t="n">
@@ -42666,7 +42666,7 @@
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>Michelle J Danielley</t>
+          <t>Devonia M Bridges</t>
         </is>
       </c>
       <c r="D1112" t="n">
@@ -42695,16 +42695,16 @@
     </row>
     <row r="1113">
       <c r="A1113" s="1" t="n">
-        <v>610217</v>
+        <v>610366</v>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>Joyce  Hui</t>
+          <t>Michelle J Danielley</t>
         </is>
       </c>
       <c r="D1113" t="n">
@@ -42712,12 +42712,12 @@
       </c>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>WARD J</t>
+          <t>WACKER</t>
         </is>
       </c>
       <c r="F1113" t="inlineStr">
         <is>
-          <t>James Ward Elementary School</t>
+          <t>Charles H Wacker Elementary School</t>
         </is>
       </c>
       <c r="G1113" t="inlineStr">
@@ -42737,12 +42737,12 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Cheyenne  Newson</t>
+          <t>Joyce  Hui</t>
         </is>
       </c>
       <c r="D1114" t="n">
@@ -42775,12 +42775,12 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>Caili  Li</t>
+          <t>Cheyenne  Newson</t>
         </is>
       </c>
       <c r="D1115" t="n">
@@ -42818,7 +42818,7 @@
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>Daimyon  Rivera</t>
+          <t>Caili  Li</t>
         </is>
       </c>
       <c r="D1116" t="n">
@@ -42856,7 +42856,7 @@
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>Ida  Hoang</t>
+          <t>Daimyon  Rivera</t>
         </is>
       </c>
       <c r="D1117" t="n">
@@ -42894,7 +42894,7 @@
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>Krysta  Barton</t>
+          <t>Ida  Hoang</t>
         </is>
       </c>
       <c r="D1118" t="n">
@@ -42932,7 +42932,7 @@
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>Matthew  Young</t>
+          <t>Krysta  Barton</t>
         </is>
       </c>
       <c r="D1119" t="n">
@@ -42970,7 +42970,7 @@
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Nohemi  Visoso</t>
+          <t>Matthew  Young</t>
         </is>
       </c>
       <c r="D1120" t="n">
@@ -43003,12 +43003,12 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>Dawn M Vazquez</t>
+          <t>Nohemi  Visoso</t>
         </is>
       </c>
       <c r="D1121" t="n">
@@ -43046,7 +43046,7 @@
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>Eric J Reed</t>
+          <t>Dawn M Vazquez</t>
         </is>
       </c>
       <c r="D1122" t="n">
@@ -43084,7 +43084,7 @@
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Kirsten K Goetz</t>
+          <t>Eric J Reed</t>
         </is>
       </c>
       <c r="D1123" t="n">
@@ -43122,7 +43122,7 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Misty J Richmond</t>
+          <t>Kirsten K Goetz</t>
         </is>
       </c>
       <c r="D1124" t="n">
@@ -43151,16 +43151,16 @@
     </row>
     <row r="1125">
       <c r="A1125" s="1" t="n">
-        <v>610218</v>
+        <v>610217</v>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Jerry E Fenderson</t>
+          <t>Misty J Richmond</t>
         </is>
       </c>
       <c r="D1125" t="n">
@@ -43168,12 +43168,12 @@
       </c>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>WARREN</t>
+          <t>WARD J</t>
         </is>
       </c>
       <c r="F1125" t="inlineStr">
         <is>
-          <t>Joseph Warren Elementary School</t>
+          <t>James Ward Elementary School</t>
         </is>
       </c>
       <c r="G1125" t="inlineStr">
@@ -43183,7 +43183,7 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>ISP</t>
         </is>
       </c>
     </row>
@@ -43193,12 +43193,12 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>April  Austin</t>
+          <t>Jerry E Fenderson</t>
         </is>
       </c>
       <c r="D1126" t="n">
@@ -43236,7 +43236,7 @@
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Lawanna J Brown</t>
+          <t>April  Austin</t>
         </is>
       </c>
       <c r="D1127" t="n">
@@ -43274,7 +43274,7 @@
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>NaKia  King</t>
+          <t>Lawanna J Brown</t>
         </is>
       </c>
       <c r="D1128" t="n">
@@ -43307,12 +43307,12 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Sangai A Turner</t>
+          <t>NaKia  King</t>
         </is>
       </c>
       <c r="D1129" t="n">
@@ -43350,7 +43350,7 @@
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Tracey Y Kidd</t>
+          <t>Sangai A Turner</t>
         </is>
       </c>
       <c r="D1130" t="n">
@@ -43379,16 +43379,16 @@
     </row>
     <row r="1131">
       <c r="A1131" s="1" t="n">
-        <v>610219</v>
+        <v>610218</v>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Eduardo  Gallardo</t>
+          <t>Tracey Y Kidd</t>
         </is>
       </c>
       <c r="D1131" t="n">
@@ -43396,12 +43396,12 @@
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>WASHINGTON G ES</t>
+          <t>WARREN</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>George Washington Elementary School</t>
+          <t>Joseph Warren Elementary School</t>
         </is>
       </c>
       <c r="G1131" t="inlineStr">
@@ -43411,7 +43411,7 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
@@ -43421,12 +43421,12 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>David  Piotrowski</t>
+          <t>Eduardo  Gallardo</t>
         </is>
       </c>
       <c r="D1132" t="n">
@@ -43464,7 +43464,7 @@
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Marcelina  Pedraza</t>
+          <t>David  Piotrowski</t>
         </is>
       </c>
       <c r="D1133" t="n">
@@ -43502,7 +43502,7 @@
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Nancy P Alvarez</t>
+          <t>Marcelina  Pedraza</t>
         </is>
       </c>
       <c r="D1134" t="n">
@@ -43535,12 +43535,12 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Diana  Anderson</t>
+          <t>Nancy P Alvarez</t>
         </is>
       </c>
       <c r="D1135" t="n">
@@ -43569,16 +43569,16 @@
     </row>
     <row r="1136">
       <c r="A1136" s="1" t="n">
-        <v>610124</v>
+        <v>610219</v>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Cynthia D Godwin</t>
+          <t>Diana  Anderson</t>
         </is>
       </c>
       <c r="D1136" t="n">
@@ -43586,12 +43586,12 @@
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>WASHINGTON H ES</t>
+          <t>WASHINGTON G ES</t>
         </is>
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>Harold Washington Elementary School</t>
+          <t>George Washington Elementary School</t>
         </is>
       </c>
       <c r="G1136" t="inlineStr">
@@ -43601,7 +43601,7 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Network 12</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
@@ -43611,12 +43611,12 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Ashley  Benson</t>
+          <t>Cynthia D Godwin</t>
         </is>
       </c>
       <c r="D1137" t="n">
@@ -43654,7 +43654,7 @@
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Destinee E Starr</t>
+          <t>Ashley  Benson</t>
         </is>
       </c>
       <c r="D1138" t="n">
@@ -43692,7 +43692,7 @@
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Dorothea  Jackson</t>
+          <t>Destinee E Starr</t>
         </is>
       </c>
       <c r="D1139" t="n">
@@ -43730,7 +43730,7 @@
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Malcolm  Steele</t>
+          <t>Dorothea  Jackson</t>
         </is>
       </c>
       <c r="D1140" t="n">
@@ -43768,7 +43768,7 @@
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Tiffany S Amos</t>
+          <t>Malcolm  Steele</t>
         </is>
       </c>
       <c r="D1141" t="n">
@@ -43801,12 +43801,12 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Joann  Hancock</t>
+          <t>Tiffany S Amos</t>
         </is>
       </c>
       <c r="D1142" t="n">
@@ -43844,7 +43844,7 @@
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Ona J Jackson-Purnell</t>
+          <t>Joann  Hancock</t>
         </is>
       </c>
       <c r="D1143" t="n">
@@ -43873,16 +43873,16 @@
     </row>
     <row r="1144">
       <c r="A1144" s="1" t="n">
-        <v>609739</v>
+        <v>610124</v>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Roman  DeLion</t>
+          <t>Ona J Jackson-Purnell</t>
         </is>
       </c>
       <c r="D1144" t="n">
@@ -43890,22 +43890,22 @@
       </c>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>WASHINGTON HS</t>
+          <t>WASHINGTON H ES</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr">
         <is>
-          <t>George Washington High School</t>
+          <t>Harold Washington Elementary School</t>
         </is>
       </c>
       <c r="G1144" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Network 17</t>
+          <t>Network 12</t>
         </is>
       </c>
     </row>
@@ -43915,12 +43915,12 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Donald Z Davis</t>
+          <t>Roman  DeLion</t>
         </is>
       </c>
       <c r="D1145" t="n">
@@ -43949,16 +43949,16 @@
     </row>
     <row r="1146">
       <c r="A1146" s="1" t="n">
-        <v>610220</v>
+        <v>609739</v>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Kathryn N Carey</t>
+          <t>Donald Z Davis</t>
         </is>
       </c>
       <c r="D1146" t="n">
@@ -43966,22 +43966,22 @@
       </c>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>WATERS</t>
+          <t>WASHINGTON HS</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr">
         <is>
-          <t>Thomas J Waters Elementary School</t>
+          <t>George Washington High School</t>
         </is>
       </c>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Network 2</t>
+          <t>Network 17</t>
         </is>
       </c>
     </row>
@@ -43991,12 +43991,12 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Elizabeth  Chandran</t>
+          <t>Kathryn N Carey</t>
         </is>
       </c>
       <c r="D1147" t="n">
@@ -44025,7 +44025,7 @@
     </row>
     <row r="1148">
       <c r="A1148" s="1" t="n">
-        <v>610110</v>
+        <v>610220</v>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
@@ -44034,7 +44034,7 @@
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Angalina W Travis</t>
+          <t>Elizabeth  Chandran</t>
         </is>
       </c>
       <c r="D1148" t="n">
@@ -44042,12 +44042,12 @@
       </c>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>WELLS ES</t>
+          <t>WATERS</t>
         </is>
       </c>
       <c r="F1148" t="inlineStr">
         <is>
-          <t>Ida B Wells Preparatory Elementary Academy</t>
+          <t>Thomas J Waters Elementary School</t>
         </is>
       </c>
       <c r="G1148" t="inlineStr">
@@ -44057,7 +44057,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Network 9</t>
+          <t>Network 2</t>
         </is>
       </c>
     </row>
@@ -44072,7 +44072,7 @@
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Shannon N Cooper</t>
+          <t>Angalina W Travis</t>
         </is>
       </c>
       <c r="D1149" t="n">
@@ -44110,7 +44110,7 @@
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Stardaisha D Harrison</t>
+          <t>Shannon N Cooper</t>
         </is>
       </c>
       <c r="D1150" t="n">
@@ -44148,7 +44148,7 @@
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Timothy T Donaldson</t>
+          <t>Stardaisha D Harrison</t>
         </is>
       </c>
       <c r="D1151" t="n">
@@ -44181,12 +44181,12 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Jeanine L Donaldson</t>
+          <t>Timothy T Donaldson</t>
         </is>
       </c>
       <c r="D1152" t="n">
@@ -44215,7 +44215,7 @@
     </row>
     <row r="1153">
       <c r="A1153" s="1" t="n">
-        <v>609740</v>
+        <v>610110</v>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Lorenzo  Aranda</t>
+          <t>Jeanine L Donaldson</t>
         </is>
       </c>
       <c r="D1153" t="n">
@@ -44232,37 +44232,37 @@
       </c>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>WELLS HS</t>
+          <t>WELLS ES</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>Wells Community Academy High School</t>
+          <t>Ida B Wells Preparatory Elementary Academy</t>
         </is>
       </c>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 9</t>
         </is>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" s="1" t="n">
-        <v>610223</v>
+        <v>609740</v>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Dionne M Frye</t>
+          <t>Lorenzo  Aranda</t>
         </is>
       </c>
       <c r="D1154" t="n">
@@ -44270,22 +44270,22 @@
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>WENTWORTH</t>
+          <t>WELLS HS</t>
         </is>
       </c>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>Daniel S Wentworth Elementary School</t>
+          <t>Wells Community Academy High School</t>
         </is>
       </c>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Network 11</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
@@ -44295,12 +44295,12 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Veronica L Shackelford</t>
+          <t>Dionne M Frye</t>
         </is>
       </c>
       <c r="D1155" t="n">
@@ -44333,12 +44333,12 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Deven  Starks</t>
+          <t>Veronica L Shackelford</t>
         </is>
       </c>
       <c r="D1156" t="n">
@@ -44371,12 +44371,12 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Kimnise D Smith</t>
+          <t>Deven  Starks</t>
         </is>
       </c>
       <c r="D1157" t="n">
@@ -44414,7 +44414,7 @@
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Shemen A Jones-Stewart</t>
+          <t>Kimnise D Smith</t>
         </is>
       </c>
       <c r="D1158" t="n">
@@ -44443,16 +44443,16 @@
     </row>
     <row r="1159">
       <c r="A1159" s="1" t="n">
-        <v>609693</v>
+        <v>610223</v>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Patricia  Alfaro</t>
+          <t>Shemen A Jones-Stewart</t>
         </is>
       </c>
       <c r="D1159" t="n">
@@ -44460,22 +44460,22 @@
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>WESTINGHOUSE HS</t>
+          <t>WENTWORTH</t>
         </is>
       </c>
       <c r="F1159" t="inlineStr">
         <is>
-          <t>George Westinghouse College Prep</t>
+          <t>Daniel S Wentworth Elementary School</t>
         </is>
       </c>
       <c r="G1159" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Network 15</t>
+          <t>Network 11</t>
         </is>
       </c>
     </row>
@@ -44485,12 +44485,12 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Peace  Mike</t>
+          <t>Patricia  Alfaro</t>
         </is>
       </c>
       <c r="D1160" t="n">
@@ -44523,12 +44523,12 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Allen Q Jones</t>
+          <t>Peace  Mike</t>
         </is>
       </c>
       <c r="D1161" t="n">
@@ -44557,16 +44557,16 @@
     </row>
     <row r="1162">
       <c r="A1162" s="1" t="n">
-        <v>610225</v>
+        <v>609693</v>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Kenneth B Story</t>
+          <t>Allen Q Jones</t>
         </is>
       </c>
       <c r="D1162" t="n">
@@ -44574,22 +44574,22 @@
       </c>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>WHISTLER</t>
+          <t>WESTINGHOUSE HS</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr">
         <is>
-          <t>John Whistler Elementary School</t>
+          <t>George Westinghouse College Prep</t>
         </is>
       </c>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Network 13</t>
+          <t>Network 15</t>
         </is>
       </c>
     </row>
@@ -44599,12 +44599,12 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Donald M Flowers</t>
+          <t>Kenneth B Story</t>
         </is>
       </c>
       <c r="D1163" t="n">
@@ -44637,12 +44637,12 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Heather D Beard</t>
+          <t>Donald M Flowers</t>
         </is>
       </c>
       <c r="D1164" t="n">
@@ -44675,12 +44675,12 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Maynard  Collins</t>
+          <t>Heather D Beard</t>
         </is>
       </c>
       <c r="D1165" t="n">
@@ -44709,16 +44709,16 @@
     </row>
     <row r="1166">
       <c r="A1166" s="1" t="n">
-        <v>610315</v>
+        <v>610225</v>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Selena  Youngblood</t>
+          <t>Maynard  Collins</t>
         </is>
       </c>
       <c r="D1166" t="n">
@@ -44726,12 +44726,12 @@
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>WHITE</t>
+          <t>WHISTLER</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>Edward White Elementary Career Academy</t>
+          <t>John Whistler Elementary School</t>
         </is>
       </c>
       <c r="G1166" t="inlineStr">
@@ -44756,7 +44756,7 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Yanisha  Ellis</t>
+          <t>Selena  Youngblood</t>
         </is>
       </c>
       <c r="D1167" t="n">
@@ -44789,12 +44789,12 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Kimberly  Rhodes</t>
+          <t>Yanisha  Ellis</t>
         </is>
       </c>
       <c r="D1168" t="n">
@@ -44832,7 +44832,7 @@
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Valerie M Docks</t>
+          <t>Kimberly  Rhodes</t>
         </is>
       </c>
       <c r="D1169" t="n">
@@ -44861,16 +44861,16 @@
     </row>
     <row r="1170">
       <c r="A1170" s="1" t="n">
-        <v>610227</v>
+        <v>610315</v>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Adriana  Gonzalez</t>
+          <t>Valerie M Docks</t>
         </is>
       </c>
       <c r="D1170" t="n">
@@ -44878,12 +44878,12 @@
       </c>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>WHITNEY</t>
+          <t>WHITE</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr">
         <is>
-          <t>Eli Whitney Elementary School</t>
+          <t>Edward White Elementary Career Academy</t>
         </is>
       </c>
       <c r="G1170" t="inlineStr">
@@ -44893,7 +44893,7 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Network 7</t>
+          <t>Network 13</t>
         </is>
       </c>
     </row>
@@ -44908,7 +44908,7 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Margarita  Marquez</t>
+          <t>Adriana  Gonzalez</t>
         </is>
       </c>
       <c r="D1171" t="n">
@@ -44937,16 +44937,16 @@
     </row>
     <row r="1172">
       <c r="A1172" s="1" t="n">
-        <v>609977</v>
+        <v>610227</v>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>COMMUNITY</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Malissa  Rainey</t>
+          <t>Margarita  Marquez</t>
         </is>
       </c>
       <c r="D1172" t="n">
@@ -44954,12 +44954,12 @@
       </c>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>WOODLAWN</t>
+          <t>WHITNEY</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr">
         <is>
-          <t>Woodlawn Community Elementary School</t>
+          <t>Eli Whitney Elementary School</t>
         </is>
       </c>
       <c r="G1172" t="inlineStr">
@@ -44969,7 +44969,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Network 9</t>
+          <t>Network 7</t>
         </is>
       </c>
     </row>
@@ -44984,7 +44984,7 @@
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Terrance  Miller</t>
+          <t>Malissa  Rainey</t>
         </is>
       </c>
       <c r="D1173" t="n">
@@ -45017,12 +45017,12 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Etta S McChristian</t>
+          <t>Terrance  Miller</t>
         </is>
       </c>
       <c r="D1174" t="n">
@@ -45060,7 +45060,7 @@
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Morgan C Stockdale</t>
+          <t>Etta S McChristian</t>
         </is>
       </c>
       <c r="D1175" t="n">
@@ -45093,12 +45093,12 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>DEVAN P GOURDINE</t>
+          <t>Morgan C Stockdale</t>
         </is>
       </c>
       <c r="D1176" t="n">
@@ -45136,7 +45136,7 @@
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>Janekqua  Smith-Nickson</t>
+          <t>DEVAN P GOURDINE</t>
         </is>
       </c>
       <c r="D1177" t="n">
@@ -45174,7 +45174,7 @@
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>STEPHON R ROBINSON</t>
+          <t>Janekqua  Smith-Nickson</t>
         </is>
       </c>
       <c r="D1178" t="n">
@@ -45207,12 +45207,12 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Lindsay  Jefferson</t>
+          <t>STEPHON R ROBINSON</t>
         </is>
       </c>
       <c r="D1179" t="n">
@@ -45250,7 +45250,7 @@
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Rachel N Roberts</t>
+          <t>Lindsay  Jefferson</t>
         </is>
       </c>
       <c r="D1180" t="n">
@@ -45279,16 +45279,16 @@
     </row>
     <row r="1181">
       <c r="A1181" s="1" t="n">
-        <v>610235</v>
+        <v>609977</v>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Alisha  Scott</t>
+          <t>Rachel N Roberts</t>
         </is>
       </c>
       <c r="D1181" t="n">
@@ -45296,12 +45296,12 @@
       </c>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>YOUNG ES</t>
+          <t>WOODLAWN</t>
         </is>
       </c>
       <c r="F1181" t="inlineStr">
         <is>
-          <t>Ella Flagg Young Elementary School</t>
+          <t>Woodlawn Community Elementary School</t>
         </is>
       </c>
       <c r="G1181" t="inlineStr">
@@ -45311,7 +45311,7 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Network 3</t>
+          <t>Network 9</t>
         </is>
       </c>
     </row>
@@ -45321,12 +45321,12 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Dessenia  Rosas</t>
+          <t>George  Heard</t>
         </is>
       </c>
       <c r="D1182" t="n">
@@ -45359,12 +45359,12 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>COMMUNITY</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Lexnic  Adan</t>
+          <t>Lavita  Redmond</t>
         </is>
       </c>
       <c r="D1183" t="n">
@@ -45402,7 +45402,7 @@
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Sencida  Hernandez</t>
+          <t>Alisha  Scott</t>
         </is>
       </c>
       <c r="D1184" t="n">
@@ -45435,12 +45435,12 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Daifa  Cegueda</t>
+          <t>Dessenia  Rosas</t>
         </is>
       </c>
       <c r="D1185" t="n">
@@ -45473,12 +45473,12 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Latoya L Irwin</t>
+          <t>Lexnic  Adan</t>
         </is>
       </c>
       <c r="D1186" t="n">
@@ -45511,12 +45511,12 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>PARENT</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Patricia A McCaa</t>
+          <t>Sencida  Hernandez</t>
         </is>
       </c>
       <c r="D1187" t="n">
@@ -45554,7 +45554,7 @@
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>Tahirah  Liberty</t>
+          <t>Daifa  Cegueda</t>
         </is>
       </c>
       <c r="D1188" t="n">
@@ -45583,16 +45583,16 @@
     </row>
     <row r="1189">
       <c r="A1189" s="1" t="n">
-        <v>609755</v>
+        <v>610235</v>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>NONTCHSTAFF</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>Tyrone  Slaughter</t>
+          <t>Latoya L Irwin</t>
         </is>
       </c>
       <c r="D1189" t="n">
@@ -45600,37 +45600,37 @@
       </c>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>YOUNG HS</t>
+          <t>YOUNG ES</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr">
         <is>
-          <t>Whitney M Young Magnet High School</t>
+          <t>Ella Flagg Young Elementary School</t>
         </is>
       </c>
       <c r="G1189" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" s="1" t="n">
-        <v>609755</v>
+        <v>610235</v>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Bradley S Vesprini</t>
+          <t>Patricia A McCaa</t>
         </is>
       </c>
       <c r="D1190" t="n">
@@ -45638,37 +45638,37 @@
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>YOUNG HS</t>
+          <t>YOUNG ES</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>Whitney M Young Magnet High School</t>
+          <t>Ella Flagg Young Elementary School</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" s="1" t="n">
-        <v>609755</v>
+        <v>610235</v>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>PARENT</t>
+          <t>TEACHER</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Tanya A Griggs</t>
+          <t>Tahirah  Liberty</t>
         </is>
       </c>
       <c r="D1191" t="n">
@@ -45676,22 +45676,22 @@
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>YOUNG HS</t>
+          <t>YOUNG ES</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>Whitney M Young Magnet High School</t>
+          <t>Ella Flagg Young Elementary School</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>ISP</t>
+          <t>Network 3</t>
         </is>
       </c>
     </row>
@@ -45701,12 +45701,12 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>TEACHER</t>
+          <t>NONTCHSTAFF</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Anne M Boyle</t>
+          <t>Tyrone  Slaughter</t>
         </is>
       </c>
       <c r="D1192" t="n">
@@ -45739,33 +45739,147 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
+          <t>PARENT</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>Bradley S Vesprini</t>
+        </is>
+      </c>
+      <c r="D1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>YOUNG HS</t>
+        </is>
+      </c>
+      <c r="F1193" t="inlineStr">
+        <is>
+          <t>Whitney M Young Magnet High School</t>
+        </is>
+      </c>
+      <c r="G1193" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="H1193" t="inlineStr">
+        <is>
+          <t>ISP</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="1" t="n">
+        <v>609755</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>PARENT</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>Tanya A Griggs</t>
+        </is>
+      </c>
+      <c r="D1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>YOUNG HS</t>
+        </is>
+      </c>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>Whitney M Young Magnet High School</t>
+        </is>
+      </c>
+      <c r="G1194" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="H1194" t="inlineStr">
+        <is>
+          <t>ISP</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="1" t="n">
+        <v>609755</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
           <t>TEACHER</t>
         </is>
       </c>
-      <c r="C1193" t="inlineStr">
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>Anne M Boyle</t>
+        </is>
+      </c>
+      <c r="D1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>YOUNG HS</t>
+        </is>
+      </c>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>Whitney M Young Magnet High School</t>
+        </is>
+      </c>
+      <c r="G1195" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="H1195" t="inlineStr">
+        <is>
+          <t>ISP</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="1" t="n">
+        <v>609755</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>TEACHER</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
         <is>
           <t>Ja'Nean D Rogers-Gayles</t>
         </is>
       </c>
-      <c r="D1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1193" t="inlineStr">
+      <c r="D1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1196" t="inlineStr">
         <is>
           <t>YOUNG HS</t>
         </is>
       </c>
-      <c r="F1193" t="inlineStr">
+      <c r="F1196" t="inlineStr">
         <is>
           <t>Whitney M Young Magnet High School</t>
         </is>
       </c>
-      <c r="G1193" t="inlineStr">
+      <c r="G1196" t="inlineStr">
         <is>
           <t>HS</t>
         </is>
       </c>
-      <c r="H1193" t="inlineStr">
+      <c r="H1196" t="inlineStr">
         <is>
           <t>ISP</t>
         </is>
